--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/EIX/eix-institutional.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/EIX/eix-institutional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\EIX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\EIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB7C3A3-0334-4FBC-BAB0-4764253A3581}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4904C75E-0462-43B2-B969-F889CEC615C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTITUTIONAL FACT SHEET" sheetId="3" r:id="rId1"/>
@@ -1019,7 +1019,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]INSTITUTIONAL FACT SHEET'!$A$5</c:f>
+              <c:f>'[2]INSTITUTIONAL FACT SHEET'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1042,7 +1042,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$B$12:$B$59</c:f>
+              <c:f>[2]Data!$B$12:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1195,7 +1195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$12:$E$59</c:f>
+              <c:f>[2]Data!$E$12:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1358,7 +1358,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]INSTITUTIONAL FACT SHEET'!$A$6</c:f>
+              <c:f>'[2]INSTITUTIONAL FACT SHEET'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1381,7 +1381,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$B$12:$B$59</c:f>
+              <c:f>[2]Data!$B$12:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1534,7 +1534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$F$12:$F$59</c:f>
+              <c:f>[2]Data!$F$12:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1888,7 +1888,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[2]INSTITUTIONAL FACT SHEET'!$A$5</c:f>
+              <c:f>'[1]INSTITUTIONAL FACT SHEET'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1911,9 +1911,9 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]Data!$B$12:$B$62</c:f>
+              <c:f>[1]Data!$B$12:$B$62</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>42675</c:v>
@@ -2073,7 +2073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Data!$E$12:$E$62</c:f>
+              <c:f>[1]Data!$E$12:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2245,7 +2245,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[2]INSTITUTIONAL FACT SHEET'!$A$6</c:f>
+              <c:f>'[1]INSTITUTIONAL FACT SHEET'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2268,9 +2268,9 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]Data!$B$12:$B$62</c:f>
+              <c:f>[1]Data!$B$12:$B$62</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>42675</c:v>
@@ -2430,7 +2430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Data!$F$12:$F$62</c:f>
+              <c:f>[1]Data!$F$12:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3972,6 +3972,196 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="5">
+          <cell r="M5">
+            <v>7.0900000000000005E-2</v>
+          </cell>
+          <cell r="N5">
+            <v>3.2899999999999999E-2</v>
+          </cell>
+          <cell r="O5">
+            <v>0.10613260999999974</v>
+          </cell>
+          <cell r="P5">
+            <v>-2.2276639952508392E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>3.39E-2</v>
+          </cell>
+          <cell r="D6">
+            <v>2.4500000000000001E-2</v>
+          </cell>
+          <cell r="E6">
+            <v>3.09E-2</v>
+          </cell>
+          <cell r="F6">
+            <v>2.0400000000000001E-2</v>
+          </cell>
+          <cell r="G6">
+            <v>3.3300000000000003E-2</v>
+          </cell>
+          <cell r="H6">
+            <v>2.1600000000000001E-2</v>
+          </cell>
+          <cell r="I6">
+            <v>7.9000000000000008E-3</v>
+          </cell>
+          <cell r="J6">
+            <v>1.52E-2</v>
+          </cell>
+          <cell r="K6">
+            <v>2.63E-2</v>
+          </cell>
+          <cell r="L6">
+            <v>1.6199999999999999E-2</v>
+          </cell>
+          <cell r="M6">
+            <v>1.14E-2</v>
+          </cell>
+          <cell r="N6">
+            <v>1.43E-2</v>
+          </cell>
+          <cell r="O6">
+            <v>0.28764679088503708</v>
+          </cell>
+          <cell r="P6">
+            <v>3.5418469213760684E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1.1900000000000001E-2</v>
+          </cell>
+          <cell r="D7">
+            <v>7.4000000000000003E-3</v>
+          </cell>
+          <cell r="E7">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="F7">
+            <v>6.4999999999999997E-3</v>
+          </cell>
+          <cell r="G7">
+            <v>7.1000000000000004E-3</v>
+          </cell>
+          <cell r="H7">
+            <v>2.9999999999999997E-4</v>
+          </cell>
+          <cell r="I7">
+            <v>2.5000000000000001E-3</v>
+          </cell>
+          <cell r="J7">
+            <v>8.0999999999999996E-3</v>
+          </cell>
+          <cell r="K7">
+            <v>6.7000000000000002E-3</v>
+          </cell>
+          <cell r="L7">
+            <v>4.5999999999999999E-3</v>
+          </cell>
+          <cell r="M7">
+            <v>2.3E-3</v>
+          </cell>
+          <cell r="N7">
+            <v>1.14E-2</v>
+          </cell>
+          <cell r="O7">
+            <v>7.9490032605758154E-2</v>
+          </cell>
+          <cell r="P7">
+            <v>1.1239414182195873E-4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>2.5000000000000001E-3</v>
+          </cell>
+          <cell r="D8">
+            <v>7.4999999999999997E-3</v>
+          </cell>
+          <cell r="E8">
+            <v>1.49E-2</v>
+          </cell>
+          <cell r="F8">
+            <v>7.4000000000000003E-3</v>
+          </cell>
+          <cell r="G8">
+            <v>1.3299999999999999E-2</v>
+          </cell>
+          <cell r="H8">
+            <v>1.5699999999999999E-2</v>
+          </cell>
+          <cell r="I8">
+            <v>5.1000000000000004E-3</v>
+          </cell>
+          <cell r="J8">
+            <v>1.3899999999999999E-2</v>
+          </cell>
+          <cell r="K8">
+            <v>4.5999999999999999E-3</v>
+          </cell>
+          <cell r="L8">
+            <v>1.04E-2</v>
+          </cell>
+          <cell r="M8">
+            <v>6.7999999999999996E-3</v>
+          </cell>
+          <cell r="N8">
+            <v>1.72E-2</v>
+          </cell>
+          <cell r="O8">
+            <v>0.12589682913859956</v>
+          </cell>
+          <cell r="P8">
+            <v>8.7168963158409163E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>9.4999999999999998E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>2.6100000000000002E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>-9.8799999999999999E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>3.85E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.1600000000000001E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>1.7500000000000002E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>1.7999999999999999E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>1.0500000000000001E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>7.7000000000000002E-3</v>
+          </cell>
+          <cell r="L9">
+            <v>1.0699999999999999E-2</v>
+          </cell>
+          <cell r="M9">
+            <v>1.01E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>9.4999999999999998E-3</v>
+          </cell>
+          <cell r="O9">
+            <v>7.6582488714993513E-2</v>
+          </cell>
+          <cell r="P9">
+            <v>7.5065168539325988E-2</v>
+          </cell>
+        </row>
         <row r="12">
           <cell r="B12">
             <v>42675</v>
@@ -4092,6 +4282,21 @@
           <cell r="F22">
             <v>10132.630849906005</v>
           </cell>
+          <cell r="L22" t="str">
+            <v>QTD</v>
+          </cell>
+          <cell r="O22">
+            <v>3.0606696665000044E-2</v>
+          </cell>
+          <cell r="P22">
+            <v>6.6873445476467452E-3</v>
+          </cell>
+          <cell r="U22">
+            <v>0.16115029699064776</v>
+          </cell>
+          <cell r="V22">
+            <v>4.1230811068915241E-2</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="B23">
@@ -4103,6 +4308,21 @@
           <cell r="F23">
             <v>10084.396952607103</v>
           </cell>
+          <cell r="L23" t="str">
+            <v>YTD</v>
+          </cell>
+          <cell r="O23">
+            <v>7.6582488714993513E-2</v>
+          </cell>
+          <cell r="P23">
+            <v>7.5065168539325988E-2</v>
+          </cell>
+          <cell r="U23">
+            <v>6.9892965749240379E-2</v>
+          </cell>
+          <cell r="V23">
+            <v>3.2690449247023003E-2</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="B24">
@@ -4114,6 +4334,21 @@
           <cell r="F24">
             <v>10090.234490946868</v>
           </cell>
+          <cell r="L24" t="str">
+            <v>1 Year</v>
+          </cell>
+          <cell r="O24">
+            <v>7.6582488714993513E-2</v>
+          </cell>
+          <cell r="P24">
+            <v>7.5065168539325988E-2</v>
+          </cell>
+          <cell r="U24">
+            <v>2.2953282246774789</v>
+          </cell>
+          <cell r="V24">
+            <v>1.2391328966702448</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="B25">
@@ -4125,6 +4360,21 @@
           <cell r="F25">
             <v>10077.273177006035</v>
           </cell>
+          <cell r="L25" t="str">
+            <v>2 Years</v>
+          </cell>
+          <cell r="O25">
+            <v>0.10096358266309302</v>
+          </cell>
+          <cell r="P25">
+            <v>8.1100127004256395E-2</v>
+          </cell>
+          <cell r="U25">
+            <v>1</v>
+          </cell>
+          <cell r="V25">
+            <v>19</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="B26">
@@ -4136,6 +4386,18 @@
           <cell r="F26">
             <v>10123.528247749084</v>
           </cell>
+          <cell r="L26" t="str">
+            <v>3 Years</v>
+          </cell>
+          <cell r="O26">
+            <v>9.3758685395332719E-2</v>
+          </cell>
+          <cell r="P26">
+            <v>5.3400569261567332E-2</v>
+          </cell>
+          <cell r="U26">
+            <v>9.6386070985051503E-2</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="B27">
@@ -4147,6 +4409,18 @@
           <cell r="F27">
             <v>10006.925892945483</v>
           </cell>
+          <cell r="L27" t="str">
+            <v>Since Inception*</v>
+          </cell>
+          <cell r="O27">
+            <v>0.16115029699064776</v>
+          </cell>
+          <cell r="P27">
+            <v>4.1230811068915241E-2</v>
+          </cell>
+          <cell r="U27">
+            <v>2.1161733596233609E-3</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="B28">
@@ -4158,6 +4432,9 @@
           <cell r="F28">
             <v>9912.090630256258</v>
           </cell>
+          <cell r="U28">
+            <v>0.15652290823751025</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="B29">
@@ -4498,6 +4775,39 @@
           </cell>
           <cell r="F59">
             <v>11754.872860393789</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>44135</v>
+          </cell>
+          <cell r="E60">
+            <v>18276.700519570153</v>
+          </cell>
+          <cell r="F60">
+            <v>11702.384485999804</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>44165</v>
+          </cell>
+          <cell r="E61">
+            <v>18461.295194817812</v>
+          </cell>
+          <cell r="F61">
+            <v>11817.205896903139</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>44196</v>
+          </cell>
+          <cell r="E62">
+            <v>18636.677499168582</v>
+          </cell>
+          <cell r="F62">
+            <v>11833.481745325023</v>
           </cell>
         </row>
       </sheetData>
@@ -4527,196 +4837,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="5">
-          <cell r="M5">
-            <v>7.0900000000000005E-2</v>
-          </cell>
-          <cell r="N5">
-            <v>3.2899999999999999E-2</v>
-          </cell>
-          <cell r="O5">
-            <v>0.10613260999999974</v>
-          </cell>
-          <cell r="P5">
-            <v>-2.2276639952508392E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>3.39E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>2.4500000000000001E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>3.09E-2</v>
-          </cell>
-          <cell r="F6">
-            <v>2.0400000000000001E-2</v>
-          </cell>
-          <cell r="G6">
-            <v>3.3300000000000003E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>2.1600000000000001E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>7.9000000000000008E-3</v>
-          </cell>
-          <cell r="J6">
-            <v>1.52E-2</v>
-          </cell>
-          <cell r="K6">
-            <v>2.63E-2</v>
-          </cell>
-          <cell r="L6">
-            <v>1.6199999999999999E-2</v>
-          </cell>
-          <cell r="M6">
-            <v>1.14E-2</v>
-          </cell>
-          <cell r="N6">
-            <v>1.43E-2</v>
-          </cell>
-          <cell r="O6">
-            <v>0.28764679088503708</v>
-          </cell>
-          <cell r="P6">
-            <v>3.5418469213760684E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1.1900000000000001E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>7.4000000000000003E-3</v>
-          </cell>
-          <cell r="E7">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="F7">
-            <v>6.4999999999999997E-3</v>
-          </cell>
-          <cell r="G7">
-            <v>7.1000000000000004E-3</v>
-          </cell>
-          <cell r="H7">
-            <v>2.9999999999999997E-4</v>
-          </cell>
-          <cell r="I7">
-            <v>2.5000000000000001E-3</v>
-          </cell>
-          <cell r="J7">
-            <v>8.0999999999999996E-3</v>
-          </cell>
-          <cell r="K7">
-            <v>6.7000000000000002E-3</v>
-          </cell>
-          <cell r="L7">
-            <v>4.5999999999999999E-3</v>
-          </cell>
-          <cell r="M7">
-            <v>2.3E-3</v>
-          </cell>
-          <cell r="N7">
-            <v>1.14E-2</v>
-          </cell>
-          <cell r="O7">
-            <v>7.9490032605758154E-2</v>
-          </cell>
-          <cell r="P7">
-            <v>1.1239414182195873E-4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2.5000000000000001E-3</v>
-          </cell>
-          <cell r="D8">
-            <v>7.4999999999999997E-3</v>
-          </cell>
-          <cell r="E8">
-            <v>1.49E-2</v>
-          </cell>
-          <cell r="F8">
-            <v>7.4000000000000003E-3</v>
-          </cell>
-          <cell r="G8">
-            <v>1.3299999999999999E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>1.5699999999999999E-2</v>
-          </cell>
-          <cell r="I8">
-            <v>5.1000000000000004E-3</v>
-          </cell>
-          <cell r="J8">
-            <v>1.3899999999999999E-2</v>
-          </cell>
-          <cell r="K8">
-            <v>4.5999999999999999E-3</v>
-          </cell>
-          <cell r="L8">
-            <v>1.04E-2</v>
-          </cell>
-          <cell r="M8">
-            <v>6.7999999999999996E-3</v>
-          </cell>
-          <cell r="N8">
-            <v>1.72E-2</v>
-          </cell>
-          <cell r="O8">
-            <v>0.12589682913859956</v>
-          </cell>
-          <cell r="P8">
-            <v>8.7168963158409163E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>9.4999999999999998E-3</v>
-          </cell>
-          <cell r="D9">
-            <v>2.6100000000000002E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>-9.8799999999999999E-2</v>
-          </cell>
-          <cell r="F9">
-            <v>3.85E-2</v>
-          </cell>
-          <cell r="G9">
-            <v>2.1600000000000001E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>1.7500000000000002E-2</v>
-          </cell>
-          <cell r="I9">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="J9">
-            <v>1.0500000000000001E-2</v>
-          </cell>
-          <cell r="K9">
-            <v>7.7000000000000002E-3</v>
-          </cell>
-          <cell r="L9">
-            <v>1.0699999999999999E-2</v>
-          </cell>
-          <cell r="M9">
-            <v>1.01E-2</v>
-          </cell>
-          <cell r="N9">
-            <v>9.4999999999999998E-3</v>
-          </cell>
-          <cell r="O9">
-            <v>7.6582488714993513E-2</v>
-          </cell>
-          <cell r="P9">
-            <v>7.5065168539325988E-2</v>
-          </cell>
-        </row>
         <row r="12">
           <cell r="B12">
             <v>42675</v>
@@ -4837,21 +4957,6 @@
           <cell r="F22">
             <v>10132.630849906005</v>
           </cell>
-          <cell r="L22" t="str">
-            <v>QTD</v>
-          </cell>
-          <cell r="O22">
-            <v>3.0606696665000044E-2</v>
-          </cell>
-          <cell r="P22">
-            <v>6.6873445476467452E-3</v>
-          </cell>
-          <cell r="U22">
-            <v>0.16115029699064776</v>
-          </cell>
-          <cell r="V22">
-            <v>4.1230811068915241E-2</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="B23">
@@ -4863,21 +4968,6 @@
           <cell r="F23">
             <v>10084.396952607103</v>
           </cell>
-          <cell r="L23" t="str">
-            <v>YTD</v>
-          </cell>
-          <cell r="O23">
-            <v>7.6582488714993513E-2</v>
-          </cell>
-          <cell r="P23">
-            <v>7.5065168539325988E-2</v>
-          </cell>
-          <cell r="U23">
-            <v>6.9892965749240379E-2</v>
-          </cell>
-          <cell r="V23">
-            <v>3.2690449247023003E-2</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="B24">
@@ -4889,21 +4979,6 @@
           <cell r="F24">
             <v>10090.234490946868</v>
           </cell>
-          <cell r="L24" t="str">
-            <v>1 Year</v>
-          </cell>
-          <cell r="O24">
-            <v>7.6582488714993513E-2</v>
-          </cell>
-          <cell r="P24">
-            <v>7.5065168539325988E-2</v>
-          </cell>
-          <cell r="U24">
-            <v>2.2953282246774789</v>
-          </cell>
-          <cell r="V24">
-            <v>1.2391328966702448</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="B25">
@@ -4915,21 +4990,6 @@
           <cell r="F25">
             <v>10077.273177006035</v>
           </cell>
-          <cell r="L25" t="str">
-            <v>2 Years</v>
-          </cell>
-          <cell r="O25">
-            <v>0.10096358266309302</v>
-          </cell>
-          <cell r="P25">
-            <v>8.1100127004256395E-2</v>
-          </cell>
-          <cell r="U25">
-            <v>1</v>
-          </cell>
-          <cell r="V25">
-            <v>19</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="B26">
@@ -4941,18 +5001,6 @@
           <cell r="F26">
             <v>10123.528247749084</v>
           </cell>
-          <cell r="L26" t="str">
-            <v>3 Years</v>
-          </cell>
-          <cell r="O26">
-            <v>9.3758685395332719E-2</v>
-          </cell>
-          <cell r="P26">
-            <v>5.3400569261567332E-2</v>
-          </cell>
-          <cell r="U26">
-            <v>9.6386070985051503E-2</v>
-          </cell>
         </row>
         <row r="27">
           <cell r="B27">
@@ -4964,18 +5012,6 @@
           <cell r="F27">
             <v>10006.925892945483</v>
           </cell>
-          <cell r="L27" t="str">
-            <v>Since Inception*</v>
-          </cell>
-          <cell r="O27">
-            <v>0.16115029699064776</v>
-          </cell>
-          <cell r="P27">
-            <v>4.1230811068915241E-2</v>
-          </cell>
-          <cell r="U27">
-            <v>2.1161733596233609E-3</v>
-          </cell>
         </row>
         <row r="28">
           <cell r="B28">
@@ -4987,9 +5023,6 @@
           <cell r="F28">
             <v>9912.090630256258</v>
           </cell>
-          <cell r="U28">
-            <v>0.15652290823751025</v>
-          </cell>
         </row>
         <row r="29">
           <cell r="B29">
@@ -5330,39 +5363,6 @@
           </cell>
           <cell r="F59">
             <v>11754.872860393789</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>44135</v>
-          </cell>
-          <cell r="E60">
-            <v>18276.700519570153</v>
-          </cell>
-          <cell r="F60">
-            <v>11702.384485999804</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>44165</v>
-          </cell>
-          <cell r="E61">
-            <v>18461.295194817812</v>
-          </cell>
-          <cell r="F61">
-            <v>11817.205896903139</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>44196</v>
-          </cell>
-          <cell r="E62">
-            <v>18636.677499168582</v>
-          </cell>
-          <cell r="F62">
-            <v>11833.481745325023</v>
           </cell>
         </row>
       </sheetData>
@@ -5696,20 +5696,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9" style="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="60" customWidth="1"/>
     <col min="7" max="7" width="9" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="60"/>
-    <col min="9" max="9" width="9.109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="8.6640625" style="60"/>
-    <col min="21" max="21" width="9.109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.6640625" style="60"/>
+    <col min="8" max="8" width="8.7109375" style="60"/>
+    <col min="9" max="9" width="9.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="8.7109375" style="60"/>
+    <col min="21" max="21" width="9.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="60"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>53</v>
       </c>
@@ -5731,32 +5731,32 @@
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="1:7" ht="20.399999999999999">
+    <row r="4" spans="1:7" ht="19.5">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="20" t="str">
-        <f>[2]Data!L22</f>
+        <f>[1]Data!L22</f>
         <v>QTD</v>
       </c>
       <c r="C4" s="20" t="str">
-        <f>[2]Data!L23</f>
+        <f>[1]Data!L23</f>
         <v>YTD</v>
       </c>
       <c r="D4" s="20" t="str">
-        <f>[2]Data!L24</f>
+        <f>[1]Data!L24</f>
         <v>1 Year</v>
       </c>
       <c r="E4" s="20" t="str">
-        <f>[2]Data!L25</f>
+        <f>[1]Data!L25</f>
         <v>2 Years</v>
       </c>
       <c r="F4" s="20" t="str">
-        <f>[2]Data!L26</f>
+        <f>[1]Data!L26</f>
         <v>3 Years</v>
       </c>
       <c r="G4" s="20" t="str">
-        <f>[2]Data!L27</f>
+        <f>[1]Data!L27</f>
         <v>Since Inception*</v>
       </c>
     </row>
@@ -5765,27 +5765,27 @@
         <v>26</v>
       </c>
       <c r="B5" s="22">
-        <f>[2]Data!O22*100</f>
+        <f>[1]Data!O22*100</f>
         <v>3.0606696665000044</v>
       </c>
       <c r="C5" s="22">
-        <f>[2]Data!O23*100</f>
+        <f>[1]Data!O23*100</f>
         <v>7.6582488714993513</v>
       </c>
       <c r="D5" s="22">
-        <f>[2]Data!O24*100</f>
+        <f>[1]Data!O24*100</f>
         <v>7.6582488714993513</v>
       </c>
       <c r="E5" s="22">
-        <f>[2]Data!O25*100</f>
+        <f>[1]Data!O25*100</f>
         <v>10.096358266309302</v>
       </c>
       <c r="F5" s="22">
-        <f>[2]Data!O26*100</f>
+        <f>[1]Data!O26*100</f>
         <v>9.3758685395332719</v>
       </c>
       <c r="G5" s="22">
-        <f>[2]Data!O27*100</f>
+        <f>[1]Data!O27*100</f>
         <v>16.115029699064777</v>
       </c>
     </row>
@@ -5794,27 +5794,27 @@
         <v>27</v>
       </c>
       <c r="B6" s="24">
-        <f>[2]Data!P22*100</f>
+        <f>[1]Data!P22*100</f>
         <v>0.66873445476467452</v>
       </c>
       <c r="C6" s="24">
-        <f>[2]Data!P23*100</f>
+        <f>[1]Data!P23*100</f>
         <v>7.5065168539325988</v>
       </c>
       <c r="D6" s="24">
-        <f>[2]Data!P24*100</f>
+        <f>[1]Data!P24*100</f>
         <v>7.5065168539325988</v>
       </c>
       <c r="E6" s="24">
-        <f>[2]Data!P25*100</f>
+        <f>[1]Data!P25*100</f>
         <v>8.1100127004256386</v>
       </c>
       <c r="F6" s="24">
-        <f>[2]Data!P26*100</f>
+        <f>[1]Data!P26*100</f>
         <v>5.3400569261567332</v>
       </c>
       <c r="G6" s="24">
-        <f>[2]Data!P27*100</f>
+        <f>[1]Data!P27*100</f>
         <v>4.1230811068915241</v>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       <c r="T19" s="67"/>
       <c r="U19" s="68"/>
     </row>
-    <row r="20" spans="1:22" s="61" customFormat="1" ht="14.4" customHeight="1">
+    <row r="20" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
       <c r="H20" s="25"/>
       <c r="I20" s="26" t="s">
         <v>2</v>
@@ -5892,251 +5892,251 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="61" customFormat="1" ht="14.4" customHeight="1">
+    <row r="21" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
       <c r="H21" s="28">
         <v>2020</v>
       </c>
       <c r="I21" s="29">
-        <f>[2]Data!C9*100</f>
+        <f>[1]Data!C9*100</f>
         <v>0.95</v>
       </c>
       <c r="J21" s="29">
-        <f>[2]Data!D9*100</f>
+        <f>[1]Data!D9*100</f>
         <v>2.6100000000000003</v>
       </c>
       <c r="K21" s="29">
-        <f>[2]Data!E9*100</f>
+        <f>[1]Data!E9*100</f>
         <v>-9.879999999999999</v>
       </c>
       <c r="L21" s="29">
-        <f>[2]Data!F9*100</f>
+        <f>[1]Data!F9*100</f>
         <v>3.85</v>
       </c>
       <c r="M21" s="29">
-        <f>[2]Data!G9*100</f>
+        <f>[1]Data!G9*100</f>
         <v>2.16</v>
       </c>
       <c r="N21" s="29">
-        <f>[2]Data!H9*100</f>
+        <f>[1]Data!H9*100</f>
         <v>1.7500000000000002</v>
       </c>
       <c r="O21" s="29">
-        <f>[2]Data!I9*100</f>
+        <f>[1]Data!I9*100</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="P21" s="29">
-        <f>[2]Data!J9*100</f>
+        <f>[1]Data!J9*100</f>
         <v>1.05</v>
       </c>
       <c r="Q21" s="29">
-        <f>[2]Data!K9*100</f>
+        <f>[1]Data!K9*100</f>
         <v>0.77</v>
       </c>
       <c r="R21" s="29">
-        <f>[2]Data!L9*100</f>
+        <f>[1]Data!L9*100</f>
         <v>1.0699999999999998</v>
       </c>
       <c r="S21" s="29">
-        <f>[2]Data!M9*100</f>
+        <f>[1]Data!M9*100</f>
         <v>1.01</v>
       </c>
       <c r="T21" s="29">
-        <f>[2]Data!N9*100</f>
+        <f>[1]Data!N9*100</f>
         <v>0.95</v>
       </c>
       <c r="U21" s="30">
-        <f>[2]Data!O9*100</f>
+        <f>[1]Data!O9*100</f>
         <v>7.6582488714993513</v>
       </c>
       <c r="V21" s="31">
-        <f>[2]Data!P9*100</f>
+        <f>[1]Data!P9*100</f>
         <v>7.5065168539325988</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="61" customFormat="1" ht="14.4" customHeight="1">
+    <row r="22" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
       <c r="H22" s="32">
         <v>2019</v>
       </c>
       <c r="I22" s="33">
-        <f>[2]Data!C8*100</f>
+        <f>[1]Data!C8*100</f>
         <v>0.25</v>
       </c>
       <c r="J22" s="33">
-        <f>[2]Data!D8*100</f>
+        <f>[1]Data!D8*100</f>
         <v>0.75</v>
       </c>
       <c r="K22" s="33">
-        <f>[2]Data!E8*100</f>
+        <f>[1]Data!E8*100</f>
         <v>1.49</v>
       </c>
       <c r="L22" s="33">
-        <f>[2]Data!F8*100</f>
+        <f>[1]Data!F8*100</f>
         <v>0.74</v>
       </c>
       <c r="M22" s="33">
-        <f>[2]Data!G8*100</f>
+        <f>[1]Data!G8*100</f>
         <v>1.3299999999999998</v>
       </c>
       <c r="N22" s="33">
-        <f>[2]Data!H8*100</f>
+        <f>[1]Data!H8*100</f>
         <v>1.5699999999999998</v>
       </c>
       <c r="O22" s="33">
-        <f>[2]Data!I8*100</f>
+        <f>[1]Data!I8*100</f>
         <v>0.51</v>
       </c>
       <c r="P22" s="33">
-        <f>[2]Data!J8*100</f>
+        <f>[1]Data!J8*100</f>
         <v>1.39</v>
       </c>
       <c r="Q22" s="33">
-        <f>[2]Data!K8*100</f>
+        <f>[1]Data!K8*100</f>
         <v>0.45999999999999996</v>
       </c>
       <c r="R22" s="33">
-        <f>[2]Data!L8*100</f>
+        <f>[1]Data!L8*100</f>
         <v>1.04</v>
       </c>
       <c r="S22" s="33">
-        <f>[2]Data!M8*100</f>
+        <f>[1]Data!M8*100</f>
         <v>0.67999999999999994</v>
       </c>
       <c r="T22" s="33">
-        <f>[2]Data!N8*100</f>
+        <f>[1]Data!N8*100</f>
         <v>1.72</v>
       </c>
       <c r="U22" s="30">
-        <f>[2]Data!O8*100</f>
+        <f>[1]Data!O8*100</f>
         <v>12.589682913859956</v>
       </c>
       <c r="V22" s="33">
-        <f>[2]Data!P8*100</f>
+        <f>[1]Data!P8*100</f>
         <v>8.7168963158409163</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="61" customFormat="1" ht="14.4" customHeight="1">
+    <row r="23" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
       <c r="H23" s="32">
         <v>2018</v>
       </c>
       <c r="I23" s="33">
-        <f>[2]Data!C7*100</f>
+        <f>[1]Data!C7*100</f>
         <v>1.1900000000000002</v>
       </c>
       <c r="J23" s="33">
-        <f>[2]Data!D7*100</f>
+        <f>[1]Data!D7*100</f>
         <v>0.74</v>
       </c>
       <c r="K23" s="33">
-        <f>[2]Data!E7*100</f>
+        <f>[1]Data!E7*100</f>
         <v>0.8</v>
       </c>
       <c r="L23" s="33">
-        <f>[2]Data!F7*100</f>
+        <f>[1]Data!F7*100</f>
         <v>0.65</v>
       </c>
       <c r="M23" s="33">
-        <f>[2]Data!G7*100</f>
+        <f>[1]Data!G7*100</f>
         <v>0.71000000000000008</v>
       </c>
       <c r="N23" s="33">
-        <f>[2]Data!H7*100</f>
+        <f>[1]Data!H7*100</f>
         <v>0.03</v>
       </c>
       <c r="O23" s="33">
-        <f>[2]Data!I7*100</f>
+        <f>[1]Data!I7*100</f>
         <v>0.25</v>
       </c>
       <c r="P23" s="33">
-        <f>[2]Data!J7*100</f>
+        <f>[1]Data!J7*100</f>
         <v>0.80999999999999994</v>
       </c>
       <c r="Q23" s="33">
-        <f>[2]Data!K7*100</f>
+        <f>[1]Data!K7*100</f>
         <v>0.67</v>
       </c>
       <c r="R23" s="33">
-        <f>[2]Data!L7*100</f>
+        <f>[1]Data!L7*100</f>
         <v>0.45999999999999996</v>
       </c>
       <c r="S23" s="33">
-        <f>[2]Data!M7*100</f>
+        <f>[1]Data!M7*100</f>
         <v>0.22999999999999998</v>
       </c>
       <c r="T23" s="33">
-        <f>[2]Data!N7*100</f>
+        <f>[1]Data!N7*100</f>
         <v>1.1400000000000001</v>
       </c>
       <c r="U23" s="30">
-        <f>[2]Data!O7*100</f>
+        <f>[1]Data!O7*100</f>
         <v>7.9490032605758154</v>
       </c>
       <c r="V23" s="33">
-        <f>[2]Data!P7*100</f>
+        <f>[1]Data!P7*100</f>
         <v>1.1239414182195873E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="61" customFormat="1" ht="14.4" customHeight="1">
+    <row r="24" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
       <c r="H24" s="32">
         <v>2017</v>
       </c>
       <c r="I24" s="33">
-        <f>[2]Data!C6*100</f>
+        <f>[1]Data!C6*100</f>
         <v>3.39</v>
       </c>
       <c r="J24" s="33">
-        <f>[2]Data!D6*100</f>
+        <f>[1]Data!D6*100</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="K24" s="33">
-        <f>[2]Data!E6*100</f>
+        <f>[1]Data!E6*100</f>
         <v>3.09</v>
       </c>
       <c r="L24" s="34">
-        <f>[2]Data!F6*100</f>
+        <f>[1]Data!F6*100</f>
         <v>2.04</v>
       </c>
       <c r="M24" s="34">
-        <f>[2]Data!G6*100</f>
+        <f>[1]Data!G6*100</f>
         <v>3.3300000000000005</v>
       </c>
       <c r="N24" s="34">
-        <f>[2]Data!H6*100</f>
+        <f>[1]Data!H6*100</f>
         <v>2.16</v>
       </c>
       <c r="O24" s="34">
-        <f>[2]Data!I6*100</f>
+        <f>[1]Data!I6*100</f>
         <v>0.79</v>
       </c>
       <c r="P24" s="34">
-        <f>[2]Data!J6*100</f>
+        <f>[1]Data!J6*100</f>
         <v>1.52</v>
       </c>
       <c r="Q24" s="34">
-        <f>[2]Data!K6*100</f>
+        <f>[1]Data!K6*100</f>
         <v>2.63</v>
       </c>
       <c r="R24" s="34">
-        <f>[2]Data!L6*100</f>
+        <f>[1]Data!L6*100</f>
         <v>1.6199999999999999</v>
       </c>
       <c r="S24" s="34">
-        <f>[2]Data!M6*100</f>
+        <f>[1]Data!M6*100</f>
         <v>1.1400000000000001</v>
       </c>
       <c r="T24" s="34">
-        <f>[2]Data!N6*100</f>
+        <f>[1]Data!N6*100</f>
         <v>1.43</v>
       </c>
       <c r="U24" s="30">
-        <f>[2]Data!O6*100</f>
+        <f>[1]Data!O6*100</f>
         <v>28.764679088503708</v>
       </c>
       <c r="V24" s="31">
-        <f>[2]Data!P6*100</f>
+        <f>[1]Data!P6*100</f>
         <v>3.5418469213760684</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="61" customFormat="1" ht="14.4" customHeight="1">
+    <row r="25" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
       <c r="H25" s="35">
         <v>2016</v>
       </c>
@@ -6151,19 +6151,19 @@
       <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
       <c r="S25" s="36">
-        <f>[2]Data!M5*100</f>
+        <f>[1]Data!M5*100</f>
         <v>7.0900000000000007</v>
       </c>
       <c r="T25" s="36">
-        <f>[2]Data!N5*100</f>
+        <f>[1]Data!N5*100</f>
         <v>3.29</v>
       </c>
       <c r="U25" s="37">
-        <f>[2]Data!O5*100</f>
+        <f>[1]Data!O5*100</f>
         <v>10.613260999999973</v>
       </c>
       <c r="V25" s="36">
-        <f>[2]Data!P5*100</f>
+        <f>[1]Data!P5*100</f>
         <v>-2.2276639952508392</v>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
     </row>
-    <row r="29" spans="1:22" ht="48">
+    <row r="29" spans="1:22" ht="45">
       <c r="A29" s="43"/>
       <c r="B29" s="44" t="s">
         <v>39</v>
@@ -6188,11 +6188,11 @@
         <v>31</v>
       </c>
       <c r="B30" s="54">
-        <f>[2]Data!U22</f>
+        <f>[1]Data!U22</f>
         <v>0.16115029699064776</v>
       </c>
       <c r="C30" s="54">
-        <f>[2]Data!V22</f>
+        <f>[1]Data!V22</f>
         <v>4.1230811068915241E-2</v>
       </c>
     </row>
@@ -6201,11 +6201,11 @@
         <v>32</v>
       </c>
       <c r="B31" s="55">
-        <f>[2]Data!U23</f>
+        <f>[1]Data!U23</f>
         <v>6.9892965749240379E-2</v>
       </c>
       <c r="C31" s="55">
-        <f>[2]Data!V23</f>
+        <f>[1]Data!V23</f>
         <v>3.2690449247023003E-2</v>
       </c>
     </row>
@@ -6214,11 +6214,11 @@
         <v>38</v>
       </c>
       <c r="B32" s="53">
-        <f>[2]Data!U24</f>
+        <f>[1]Data!U24</f>
         <v>2.2953282246774789</v>
       </c>
       <c r="C32" s="53">
-        <f>[2]Data!V24</f>
+        <f>[1]Data!V24</f>
         <v>1.2391328966702448</v>
       </c>
     </row>
@@ -6227,11 +6227,11 @@
         <v>42</v>
       </c>
       <c r="B33" s="57">
-        <f>[2]Data!U25</f>
+        <f>[1]Data!U25</f>
         <v>1</v>
       </c>
       <c r="C33" s="57">
-        <f>[2]Data!V25</f>
+        <f>[1]Data!V25</f>
         <v>19</v>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="55">
-        <f>[2]Data!U28</f>
+        <f>[1]Data!U28</f>
         <v>0.15652290823751025</v>
       </c>
       <c r="C34" s="56">
@@ -6252,7 +6252,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="47">
-        <f>[2]Data!U26</f>
+        <f>[1]Data!U26</f>
         <v>9.6386070985051503E-2</v>
       </c>
       <c r="C35" s="48">
@@ -6264,7 +6264,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="50">
-        <f>[2]Data!U27</f>
+        <f>[1]Data!U27</f>
         <v>2.1161733596233609E-3</v>
       </c>
       <c r="C36" s="51">
@@ -6289,12 +6289,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -6302,7 +6302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="15" thickBot="1">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6320,7 +6320,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="38"/>
     </row>
-    <row r="3" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -6365,7 +6365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" hidden="1" thickBot="1">
+    <row r="4" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>-0.11003817376698721</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B5" s="11">
         <v>2016</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>-2.2276639952508392E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B6" s="11">
         <v>2017</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>3.5418469213760684E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B7" s="11">
         <v>2018</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>1.1239414182195873E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B8" s="11">
         <v>2019</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>8.7168963158409163E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B9" s="11">
         <v>2020</v>
       </c>
@@ -7921,7 +7921,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552BB0A-95E8-4484-B44E-665FFB567A66}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
@@ -7929,9 +7929,9 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="40" bestFit="1" customWidth="1"/>
   </cols>
@@ -8670,18 +8670,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19942F6E-ABE3-48F5-96DE-A95B01CE032C}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="40"/>
-    <col min="6" max="6" width="15.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="40"/>
+    <col min="6" max="6" width="15.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8791,21 +8793,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33096476-4FED-4E7F-B7DC-B153128BA44E}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="62"/>
-    <col min="2" max="13" width="9.109375" style="40"/>
-    <col min="14" max="14" width="12.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="40"/>
-    <col min="16" max="16" width="9.109375" style="62"/>
+    <col min="1" max="1" width="9.140625" style="62"/>
+    <col min="2" max="13" width="9.140625" style="40"/>
+    <col min="14" max="14" width="12.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="40"/>
+    <col min="16" max="16" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -9205,16 +9207,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4309EB0-CF30-41DF-9633-6869C51AE0BD}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/EIX/eix-institutional.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/EIX/eix-institutional.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\EIX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\EIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4904C75E-0462-43B2-B969-F889CEC615C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE519887-22CE-4F00-969D-46D27FBE7CBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTITUTIONAL FACT SHEET" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -214,20 +215,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Performance &amp; Risk Statistics: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>as of September 30, 2020</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">R-squared </t>
     </r>
     <r>
@@ -251,7 +238,21 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ending December 31, 2020</t>
+      <t>Ending March 31, 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Performance &amp; Risk Statistics: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>as of March 31, 2021</t>
     </r>
   </si>
 </sst>
@@ -479,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -711,17 +712,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFA6A6A6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF2F2F2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FFF2F2F2"/>
@@ -781,12 +771,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -857,16 +865,19 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="2" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="23" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,23 +886,14 @@
     <xf numFmtId="2" fontId="23" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="23" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,13 +902,19 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,25 +926,16 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -965,6 +964,24 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2758,6 +2775,947 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8152363502578763E-2"/>
+          <c:y val="2.4262036556840914E-2"/>
+          <c:w val="0.86844932707024103"/>
+          <c:h val="0.87553422308775131"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]INSTITUTIONAL FACT SHEET'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wickapogue Structured Credit Fund</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="010066"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[3]Data!$B$13:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Data!$E$13:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11061.326099999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11436.305054789998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11716.494528632353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12078.534209567091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12324.93630744226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12735.356686480089</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13010.440390908059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13113.222869996232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13312.543857620176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13662.663761075586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13883.998914005011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14042.276501624669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14243.081055597901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14412.573720159517</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14519.226765688698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14635.380579814208</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14730.510553582999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14835.097178513441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14839.547707666994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14876.64657693616</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14997.147414209343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15097.628301884544</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15167.077392073212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15201.961670074979</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15375.264033113835</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15413.702193196619</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15529.304959645595</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15760.691603544314</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15877.320721410542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16088.489087005304</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16341.078365671288</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16424.417865336214</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16652.717273664388</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16729.319773123243</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16903.304698763724</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17018.247170715316</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17310.961022051622</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17475.415151761114</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17931.523487222079</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16159.888966684537</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16782.04469190189</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17144.536857246971</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17444.566252248795</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17758.568444789275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17945.033413459561</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18083.210170743201</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18276.700519570153</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18461.295194817812</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18636.677499168582</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18754.088567413342</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18956.632723941406</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19053.31155083351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9A7-4FC8-A061-82E73B025836}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]INSTITUTIONAL FACT SHEET'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barclays U.S. Agg. Bond TR Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[3]Data!$B$13:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Data!$F$13:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9763.4807559117435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9777.2336004749159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9796.4282180666833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9862.2736717126718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9857.0792520035593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9933.1651330760851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10009.597308795883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9999.5547640249315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10042.594241614721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10132.630849906005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10084.396952607103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10090.234490946868</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10077.273177006035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10123.528247749084</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10006.925892945483</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9912.090630256258</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9975.6604333630148</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9901.4544375185505</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9972.0985455624814</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9959.8298209161967</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9962.2044127832196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10026.318393192838</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9961.7591768081547</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9883.0513505491253</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9942.0203819135259</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10124.6660730187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10232.215296329277</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10226.278816661719</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10422.627881666172</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10425.299297516574</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10610.369051152669</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10743.593549025431</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10767.240526367865</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11046.255070743051</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10987.43445137034</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11020.530325516971</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11014.890669832792</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11007.222716928862</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11219.056099732861</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11420.995349757593</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11353.76471752251</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11555.605026219451</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11609.379637874739</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11682.546749777384</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11857.029781339668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11761.304046700308</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11754.872860393789</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11702.384485999804</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11817.205896903139</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11833.481745325023</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11748.639556742852</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11579.004650242407</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11434.401899673494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9A7-4FC8-A061-82E73B025836}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="536349000"/>
+        <c:axId val="536340472"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="536349000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mm/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="750" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Univers LT Std 57 Cn" panose="020B0506020202050204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536340472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="3"/>
+        <c:majorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="536340472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+          <c:min val="8000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Univers LT Std 47 Cn Lt" panose="020B0406020202040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536349000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000"/>
+        <c:minorUnit val="1000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2799,6 +3757,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3870,6 +4868,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1862" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3948,6 +5462,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>105831</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>608897</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10904</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7B15AF-8008-4621-9991-932C0499E679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3976,191 +5528,6 @@
           <cell r="M5">
             <v>7.0900000000000005E-2</v>
           </cell>
-          <cell r="N5">
-            <v>3.2899999999999999E-2</v>
-          </cell>
-          <cell r="O5">
-            <v>0.10613260999999974</v>
-          </cell>
-          <cell r="P5">
-            <v>-2.2276639952508392E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>3.39E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>2.4500000000000001E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>3.09E-2</v>
-          </cell>
-          <cell r="F6">
-            <v>2.0400000000000001E-2</v>
-          </cell>
-          <cell r="G6">
-            <v>3.3300000000000003E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>2.1600000000000001E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>7.9000000000000008E-3</v>
-          </cell>
-          <cell r="J6">
-            <v>1.52E-2</v>
-          </cell>
-          <cell r="K6">
-            <v>2.63E-2</v>
-          </cell>
-          <cell r="L6">
-            <v>1.6199999999999999E-2</v>
-          </cell>
-          <cell r="M6">
-            <v>1.14E-2</v>
-          </cell>
-          <cell r="N6">
-            <v>1.43E-2</v>
-          </cell>
-          <cell r="O6">
-            <v>0.28764679088503708</v>
-          </cell>
-          <cell r="P6">
-            <v>3.5418469213760684E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1.1900000000000001E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>7.4000000000000003E-3</v>
-          </cell>
-          <cell r="E7">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="F7">
-            <v>6.4999999999999997E-3</v>
-          </cell>
-          <cell r="G7">
-            <v>7.1000000000000004E-3</v>
-          </cell>
-          <cell r="H7">
-            <v>2.9999999999999997E-4</v>
-          </cell>
-          <cell r="I7">
-            <v>2.5000000000000001E-3</v>
-          </cell>
-          <cell r="J7">
-            <v>8.0999999999999996E-3</v>
-          </cell>
-          <cell r="K7">
-            <v>6.7000000000000002E-3</v>
-          </cell>
-          <cell r="L7">
-            <v>4.5999999999999999E-3</v>
-          </cell>
-          <cell r="M7">
-            <v>2.3E-3</v>
-          </cell>
-          <cell r="N7">
-            <v>1.14E-2</v>
-          </cell>
-          <cell r="O7">
-            <v>7.9490032605758154E-2</v>
-          </cell>
-          <cell r="P7">
-            <v>1.1239414182195873E-4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2.5000000000000001E-3</v>
-          </cell>
-          <cell r="D8">
-            <v>7.4999999999999997E-3</v>
-          </cell>
-          <cell r="E8">
-            <v>1.49E-2</v>
-          </cell>
-          <cell r="F8">
-            <v>7.4000000000000003E-3</v>
-          </cell>
-          <cell r="G8">
-            <v>1.3299999999999999E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>1.5699999999999999E-2</v>
-          </cell>
-          <cell r="I8">
-            <v>5.1000000000000004E-3</v>
-          </cell>
-          <cell r="J8">
-            <v>1.3899999999999999E-2</v>
-          </cell>
-          <cell r="K8">
-            <v>4.5999999999999999E-3</v>
-          </cell>
-          <cell r="L8">
-            <v>1.04E-2</v>
-          </cell>
-          <cell r="M8">
-            <v>6.7999999999999996E-3</v>
-          </cell>
-          <cell r="N8">
-            <v>1.72E-2</v>
-          </cell>
-          <cell r="O8">
-            <v>0.12589682913859956</v>
-          </cell>
-          <cell r="P8">
-            <v>8.7168963158409163E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>9.4999999999999998E-3</v>
-          </cell>
-          <cell r="D9">
-            <v>2.6100000000000002E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>-9.8799999999999999E-2</v>
-          </cell>
-          <cell r="F9">
-            <v>3.85E-2</v>
-          </cell>
-          <cell r="G9">
-            <v>2.1600000000000001E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>1.7500000000000002E-2</v>
-          </cell>
-          <cell r="I9">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="J9">
-            <v>1.0500000000000001E-2</v>
-          </cell>
-          <cell r="K9">
-            <v>7.7000000000000002E-3</v>
-          </cell>
-          <cell r="L9">
-            <v>1.0699999999999999E-2</v>
-          </cell>
-          <cell r="M9">
-            <v>1.01E-2</v>
-          </cell>
-          <cell r="N9">
-            <v>9.4999999999999998E-3</v>
-          </cell>
-          <cell r="O9">
-            <v>7.6582488714993513E-2</v>
-          </cell>
-          <cell r="P9">
-            <v>7.5065168539325988E-2</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="B12">
@@ -4282,21 +5649,6 @@
           <cell r="F22">
             <v>10132.630849906005</v>
           </cell>
-          <cell r="L22" t="str">
-            <v>QTD</v>
-          </cell>
-          <cell r="O22">
-            <v>3.0606696665000044E-2</v>
-          </cell>
-          <cell r="P22">
-            <v>6.6873445476467452E-3</v>
-          </cell>
-          <cell r="U22">
-            <v>0.16115029699064776</v>
-          </cell>
-          <cell r="V22">
-            <v>4.1230811068915241E-2</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="B23">
@@ -4308,21 +5660,6 @@
           <cell r="F23">
             <v>10084.396952607103</v>
           </cell>
-          <cell r="L23" t="str">
-            <v>YTD</v>
-          </cell>
-          <cell r="O23">
-            <v>7.6582488714993513E-2</v>
-          </cell>
-          <cell r="P23">
-            <v>7.5065168539325988E-2</v>
-          </cell>
-          <cell r="U23">
-            <v>6.9892965749240379E-2</v>
-          </cell>
-          <cell r="V23">
-            <v>3.2690449247023003E-2</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="B24">
@@ -4334,21 +5671,6 @@
           <cell r="F24">
             <v>10090.234490946868</v>
           </cell>
-          <cell r="L24" t="str">
-            <v>1 Year</v>
-          </cell>
-          <cell r="O24">
-            <v>7.6582488714993513E-2</v>
-          </cell>
-          <cell r="P24">
-            <v>7.5065168539325988E-2</v>
-          </cell>
-          <cell r="U24">
-            <v>2.2953282246774789</v>
-          </cell>
-          <cell r="V24">
-            <v>1.2391328966702448</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="B25">
@@ -4360,21 +5682,6 @@
           <cell r="F25">
             <v>10077.273177006035</v>
           </cell>
-          <cell r="L25" t="str">
-            <v>2 Years</v>
-          </cell>
-          <cell r="O25">
-            <v>0.10096358266309302</v>
-          </cell>
-          <cell r="P25">
-            <v>8.1100127004256395E-2</v>
-          </cell>
-          <cell r="U25">
-            <v>1</v>
-          </cell>
-          <cell r="V25">
-            <v>19</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="B26">
@@ -4386,18 +5693,6 @@
           <cell r="F26">
             <v>10123.528247749084</v>
           </cell>
-          <cell r="L26" t="str">
-            <v>3 Years</v>
-          </cell>
-          <cell r="O26">
-            <v>9.3758685395332719E-2</v>
-          </cell>
-          <cell r="P26">
-            <v>5.3400569261567332E-2</v>
-          </cell>
-          <cell r="U26">
-            <v>9.6386070985051503E-2</v>
-          </cell>
         </row>
         <row r="27">
           <cell r="B27">
@@ -4409,18 +5704,6 @@
           <cell r="F27">
             <v>10006.925892945483</v>
           </cell>
-          <cell r="L27" t="str">
-            <v>Since Inception*</v>
-          </cell>
-          <cell r="O27">
-            <v>0.16115029699064776</v>
-          </cell>
-          <cell r="P27">
-            <v>4.1230811068915241E-2</v>
-          </cell>
-          <cell r="U27">
-            <v>2.1161733596233609E-3</v>
-          </cell>
         </row>
         <row r="28">
           <cell r="B28">
@@ -4431,9 +5714,6 @@
           </cell>
           <cell r="F28">
             <v>9912.090630256258</v>
-          </cell>
-          <cell r="U28">
-            <v>0.15652290823751025</v>
           </cell>
         </row>
         <row r="29">
@@ -5363,6 +6643,915 @@
           </cell>
           <cell r="F59">
             <v>11754.872860393789</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="INSTITUTIONAL FACT SHEET"/>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Wickapogue Structured Credit Fund</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Barclays U.S. Agg. Bond TR Index</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="M5">
+            <v>7.0900000000000005E-2</v>
+          </cell>
+          <cell r="N5">
+            <v>3.2899999999999999E-2</v>
+          </cell>
+          <cell r="O5">
+            <v>0.10613260999999974</v>
+          </cell>
+          <cell r="P5">
+            <v>-2.2276639952508392E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>3.39E-2</v>
+          </cell>
+          <cell r="D6">
+            <v>2.4500000000000001E-2</v>
+          </cell>
+          <cell r="E6">
+            <v>3.09E-2</v>
+          </cell>
+          <cell r="F6">
+            <v>2.0400000000000001E-2</v>
+          </cell>
+          <cell r="G6">
+            <v>3.3300000000000003E-2</v>
+          </cell>
+          <cell r="H6">
+            <v>2.1600000000000001E-2</v>
+          </cell>
+          <cell r="I6">
+            <v>7.9000000000000008E-3</v>
+          </cell>
+          <cell r="J6">
+            <v>1.52E-2</v>
+          </cell>
+          <cell r="K6">
+            <v>2.63E-2</v>
+          </cell>
+          <cell r="L6">
+            <v>1.6199999999999999E-2</v>
+          </cell>
+          <cell r="M6">
+            <v>1.14E-2</v>
+          </cell>
+          <cell r="N6">
+            <v>1.43E-2</v>
+          </cell>
+          <cell r="O6">
+            <v>0.28764679088503708</v>
+          </cell>
+          <cell r="P6">
+            <v>3.5418469213760684E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1.1900000000000001E-2</v>
+          </cell>
+          <cell r="D7">
+            <v>7.4000000000000003E-3</v>
+          </cell>
+          <cell r="E7">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="F7">
+            <v>6.4999999999999997E-3</v>
+          </cell>
+          <cell r="G7">
+            <v>7.1000000000000004E-3</v>
+          </cell>
+          <cell r="H7">
+            <v>2.9999999999999997E-4</v>
+          </cell>
+          <cell r="I7">
+            <v>2.5000000000000001E-3</v>
+          </cell>
+          <cell r="J7">
+            <v>8.0999999999999996E-3</v>
+          </cell>
+          <cell r="K7">
+            <v>6.7000000000000002E-3</v>
+          </cell>
+          <cell r="L7">
+            <v>4.5999999999999999E-3</v>
+          </cell>
+          <cell r="M7">
+            <v>2.3E-3</v>
+          </cell>
+          <cell r="N7">
+            <v>1.14E-2</v>
+          </cell>
+          <cell r="O7">
+            <v>7.9490032605758154E-2</v>
+          </cell>
+          <cell r="P7">
+            <v>1.1239414182195873E-4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>2.5000000000000001E-3</v>
+          </cell>
+          <cell r="D8">
+            <v>7.4999999999999997E-3</v>
+          </cell>
+          <cell r="E8">
+            <v>1.49E-2</v>
+          </cell>
+          <cell r="F8">
+            <v>7.4000000000000003E-3</v>
+          </cell>
+          <cell r="G8">
+            <v>1.3299999999999999E-2</v>
+          </cell>
+          <cell r="H8">
+            <v>1.5699999999999999E-2</v>
+          </cell>
+          <cell r="I8">
+            <v>5.1000000000000004E-3</v>
+          </cell>
+          <cell r="J8">
+            <v>1.3899999999999999E-2</v>
+          </cell>
+          <cell r="K8">
+            <v>4.5999999999999999E-3</v>
+          </cell>
+          <cell r="L8">
+            <v>1.04E-2</v>
+          </cell>
+          <cell r="M8">
+            <v>6.7999999999999996E-3</v>
+          </cell>
+          <cell r="N8">
+            <v>1.72E-2</v>
+          </cell>
+          <cell r="O8">
+            <v>0.12589682913859956</v>
+          </cell>
+          <cell r="P8">
+            <v>8.7168963158409163E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>9.4999999999999998E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>2.6100000000000002E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>-9.8799999999999999E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>3.85E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.1600000000000001E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>1.7500000000000002E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>1.7999999999999999E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>1.0500000000000001E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>7.7000000000000002E-3</v>
+          </cell>
+          <cell r="L9">
+            <v>1.0699999999999999E-2</v>
+          </cell>
+          <cell r="M9">
+            <v>1.01E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>9.4999999999999998E-3</v>
+          </cell>
+          <cell r="O9">
+            <v>9.5099707520891474E-2</v>
+          </cell>
+          <cell r="P9">
+            <v>7.4316768094136565E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>6.3E-3</v>
+          </cell>
+          <cell r="D10">
+            <v>1.0800000000000001E-2</v>
+          </cell>
+          <cell r="E10">
+            <v>5.1000000000000004E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>42675</v>
+          </cell>
+          <cell r="E13">
+            <v>10000</v>
+          </cell>
+          <cell r="F13">
+            <v>10000</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>42704</v>
+          </cell>
+          <cell r="E14">
+            <v>10709</v>
+          </cell>
+          <cell r="F14">
+            <v>9763.4807559117435</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>42735</v>
+          </cell>
+          <cell r="E15">
+            <v>11061.326099999998</v>
+          </cell>
+          <cell r="F15">
+            <v>9777.2336004749159</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>42766</v>
+          </cell>
+          <cell r="E16">
+            <v>11436.305054789998</v>
+          </cell>
+          <cell r="F16">
+            <v>9796.4282180666833</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>42794</v>
+          </cell>
+          <cell r="E17">
+            <v>11716.494528632353</v>
+          </cell>
+          <cell r="F17">
+            <v>9862.2736717126718</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>42825</v>
+          </cell>
+          <cell r="E18">
+            <v>12078.534209567091</v>
+          </cell>
+          <cell r="F18">
+            <v>9857.0792520035593</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>42855</v>
+          </cell>
+          <cell r="E19">
+            <v>12324.93630744226</v>
+          </cell>
+          <cell r="F19">
+            <v>9933.1651330760851</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>42886</v>
+          </cell>
+          <cell r="E20">
+            <v>12735.356686480089</v>
+          </cell>
+          <cell r="F20">
+            <v>10009.597308795883</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>42916</v>
+          </cell>
+          <cell r="E21">
+            <v>13010.440390908059</v>
+          </cell>
+          <cell r="F21">
+            <v>9999.5547640249315</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>42947</v>
+          </cell>
+          <cell r="E22">
+            <v>13113.222869996232</v>
+          </cell>
+          <cell r="F22">
+            <v>10042.594241614721</v>
+          </cell>
+          <cell r="U22">
+            <v>0.15714968144363017</v>
+          </cell>
+          <cell r="V22">
+            <v>3.0814228169778968E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>42978</v>
+          </cell>
+          <cell r="E23">
+            <v>13312.543857620176</v>
+          </cell>
+          <cell r="F23">
+            <v>10132.630849906005</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>QTD</v>
+          </cell>
+          <cell r="O23">
+            <v>2.2355597004000138E-2</v>
+          </cell>
+          <cell r="P23">
+            <v>-3.3724634409411314E-2</v>
+          </cell>
+          <cell r="U23">
+            <v>6.8014323386890257E-2</v>
+          </cell>
+          <cell r="V23">
+            <v>3.4003684356440342E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>43008</v>
+          </cell>
+          <cell r="E24">
+            <v>13662.663761075586</v>
+          </cell>
+          <cell r="F24">
+            <v>10084.396952607103</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>YTD</v>
+          </cell>
+          <cell r="O24">
+            <v>2.2355597004000138E-2</v>
+          </cell>
+          <cell r="P24">
+            <v>-3.3724634409411314E-2</v>
+          </cell>
+          <cell r="U24">
+            <v>2.3079356468888523</v>
+          </cell>
+          <cell r="V24">
+            <v>0.90099731101568814</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>43039</v>
+          </cell>
+          <cell r="E25">
+            <v>13883.998914005011</v>
+          </cell>
+          <cell r="F25">
+            <v>10090.234490946868</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>1 Year</v>
+          </cell>
+          <cell r="O25">
+            <v>0.17904965746448487</v>
+          </cell>
+          <cell r="P25">
+            <v>7.1022417812247607E-3</v>
+          </cell>
+          <cell r="U25">
+            <v>1</v>
+          </cell>
+          <cell r="V25">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>43069</v>
+          </cell>
+          <cell r="E26">
+            <v>14042.276501624669</v>
+          </cell>
+          <cell r="F26">
+            <v>10077.273177006035</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>2 Years</v>
+          </cell>
+          <cell r="O26">
+            <v>9.9505987997082546E-2</v>
+          </cell>
+          <cell r="P26">
+            <v>4.741336258219353E-2</v>
+          </cell>
+          <cell r="U26">
+            <v>0.12529464154063602</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>43100</v>
+          </cell>
+          <cell r="E27">
+            <v>14243.081055597901</v>
+          </cell>
+          <cell r="F27">
+            <v>10123.528247749084</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>3 Years</v>
+          </cell>
+          <cell r="O27">
+            <v>9.1914960029621184E-2</v>
+          </cell>
+          <cell r="P27">
+            <v>4.6543452836169896E-2</v>
+          </cell>
+          <cell r="U27">
+            <v>4.0762539824993043E-3</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>43131</v>
+          </cell>
+          <cell r="E28">
+            <v>14412.573720159517</v>
+          </cell>
+          <cell r="F28">
+            <v>10006.925892945483</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>Since Inception*</v>
+          </cell>
+          <cell r="O28">
+            <v>0.15714968144363017</v>
+          </cell>
+          <cell r="P28">
+            <v>3.0814228169778968E-2</v>
+          </cell>
+          <cell r="U28">
+            <v>0.15313400092229904</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>43159</v>
+          </cell>
+          <cell r="E29">
+            <v>14519.226765688698</v>
+          </cell>
+          <cell r="F29">
+            <v>9912.090630256258</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>43190</v>
+          </cell>
+          <cell r="E30">
+            <v>14635.380579814208</v>
+          </cell>
+          <cell r="F30">
+            <v>9975.6604333630148</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>43220</v>
+          </cell>
+          <cell r="E31">
+            <v>14730.510553582999</v>
+          </cell>
+          <cell r="F31">
+            <v>9901.4544375185505</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>43251</v>
+          </cell>
+          <cell r="E32">
+            <v>14835.097178513441</v>
+          </cell>
+          <cell r="F32">
+            <v>9972.0985455624814</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>43281</v>
+          </cell>
+          <cell r="E33">
+            <v>14839.547707666994</v>
+          </cell>
+          <cell r="F33">
+            <v>9959.8298209161967</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>43312</v>
+          </cell>
+          <cell r="E34">
+            <v>14876.64657693616</v>
+          </cell>
+          <cell r="F34">
+            <v>9962.2044127832196</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>43343</v>
+          </cell>
+          <cell r="E35">
+            <v>14997.147414209343</v>
+          </cell>
+          <cell r="F35">
+            <v>10026.318393192838</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>43373</v>
+          </cell>
+          <cell r="E36">
+            <v>15097.628301884544</v>
+          </cell>
+          <cell r="F36">
+            <v>9961.7591768081547</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>43404</v>
+          </cell>
+          <cell r="E37">
+            <v>15167.077392073212</v>
+          </cell>
+          <cell r="F37">
+            <v>9883.0513505491253</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>43434</v>
+          </cell>
+          <cell r="E38">
+            <v>15201.961670074979</v>
+          </cell>
+          <cell r="F38">
+            <v>9942.0203819135259</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>43465</v>
+          </cell>
+          <cell r="E39">
+            <v>15375.264033113835</v>
+          </cell>
+          <cell r="F39">
+            <v>10124.6660730187</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>43496</v>
+          </cell>
+          <cell r="E40">
+            <v>15413.702193196619</v>
+          </cell>
+          <cell r="F40">
+            <v>10232.215296329277</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>43524</v>
+          </cell>
+          <cell r="E41">
+            <v>15529.304959645595</v>
+          </cell>
+          <cell r="F41">
+            <v>10226.278816661719</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>43555</v>
+          </cell>
+          <cell r="E42">
+            <v>15760.691603544314</v>
+          </cell>
+          <cell r="F42">
+            <v>10422.627881666172</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>43585</v>
+          </cell>
+          <cell r="E43">
+            <v>15877.320721410542</v>
+          </cell>
+          <cell r="F43">
+            <v>10425.299297516574</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>43616</v>
+          </cell>
+          <cell r="E44">
+            <v>16088.489087005304</v>
+          </cell>
+          <cell r="F44">
+            <v>10610.369051152669</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>43646</v>
+          </cell>
+          <cell r="E45">
+            <v>16341.078365671288</v>
+          </cell>
+          <cell r="F45">
+            <v>10743.593549025431</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>43677</v>
+          </cell>
+          <cell r="E46">
+            <v>16424.417865336214</v>
+          </cell>
+          <cell r="F46">
+            <v>10767.240526367865</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>43708</v>
+          </cell>
+          <cell r="E47">
+            <v>16652.717273664388</v>
+          </cell>
+          <cell r="F47">
+            <v>11046.255070743051</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>43738</v>
+          </cell>
+          <cell r="E48">
+            <v>16729.319773123243</v>
+          </cell>
+          <cell r="F48">
+            <v>10987.43445137034</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>43769</v>
+          </cell>
+          <cell r="E49">
+            <v>16903.304698763724</v>
+          </cell>
+          <cell r="F49">
+            <v>11020.530325516971</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>43799</v>
+          </cell>
+          <cell r="E50">
+            <v>17018.247170715316</v>
+          </cell>
+          <cell r="F50">
+            <v>11014.890669832792</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>43830</v>
+          </cell>
+          <cell r="E51">
+            <v>17310.961022051622</v>
+          </cell>
+          <cell r="F51">
+            <v>11007.222716928862</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>43861</v>
+          </cell>
+          <cell r="E52">
+            <v>17475.415151761114</v>
+          </cell>
+          <cell r="F52">
+            <v>11219.056099732861</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>43890</v>
+          </cell>
+          <cell r="E53">
+            <v>17931.523487222079</v>
+          </cell>
+          <cell r="F53">
+            <v>11420.995349757593</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>43921</v>
+          </cell>
+          <cell r="E54">
+            <v>16159.888966684537</v>
+          </cell>
+          <cell r="F54">
+            <v>11353.76471752251</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>43951</v>
+          </cell>
+          <cell r="E55">
+            <v>16782.04469190189</v>
+          </cell>
+          <cell r="F55">
+            <v>11555.605026219451</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>43982</v>
+          </cell>
+          <cell r="E56">
+            <v>17144.536857246971</v>
+          </cell>
+          <cell r="F56">
+            <v>11609.379637874739</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>44012</v>
+          </cell>
+          <cell r="E57">
+            <v>17444.566252248795</v>
+          </cell>
+          <cell r="F57">
+            <v>11682.546749777384</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>44043</v>
+          </cell>
+          <cell r="E58">
+            <v>17758.568444789275</v>
+          </cell>
+          <cell r="F58">
+            <v>11857.029781339668</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>44074</v>
+          </cell>
+          <cell r="E59">
+            <v>17945.033413459561</v>
+          </cell>
+          <cell r="F59">
+            <v>11761.304046700308</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>44104</v>
+          </cell>
+          <cell r="E60">
+            <v>18083.210170743201</v>
+          </cell>
+          <cell r="F60">
+            <v>11754.872860393789</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>44135</v>
+          </cell>
+          <cell r="E61">
+            <v>18276.700519570153</v>
+          </cell>
+          <cell r="F61">
+            <v>11702.384485999804</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>44165</v>
+          </cell>
+          <cell r="E62">
+            <v>18461.295194817812</v>
+          </cell>
+          <cell r="F62">
+            <v>11817.205896903139</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>44196</v>
+          </cell>
+          <cell r="E63">
+            <v>18636.677499168582</v>
+          </cell>
+          <cell r="F63">
+            <v>11833.481745325023</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>44227</v>
+          </cell>
+          <cell r="E64">
+            <v>18754.088567413342</v>
+          </cell>
+          <cell r="F64">
+            <v>11748.639556742852</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>44255</v>
+          </cell>
+          <cell r="E65">
+            <v>18956.632723941406</v>
+          </cell>
+          <cell r="F65">
+            <v>11579.004650242407</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>44286</v>
+          </cell>
+          <cell r="E66">
+            <v>19053.31155083351</v>
+          </cell>
+          <cell r="F66">
+            <v>11434.401899673494</v>
           </cell>
         </row>
       </sheetData>
@@ -5696,67 +7885,66 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="60" customWidth="1"/>
-    <col min="7" max="7" width="9" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="60"/>
-    <col min="9" max="9" width="9.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="8.7109375" style="60"/>
-    <col min="21" max="21" width="9.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7109375" style="60"/>
+    <col min="1" max="1" width="27.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="57" customWidth="1"/>
+    <col min="7" max="8" width="9" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="8.6640625" style="57"/>
+    <col min="21" max="21" width="9.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.6640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+        <v>52</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.5">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.399999999999999">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="20" t="str">
-        <f>[1]Data!L22</f>
+        <f>[3]Data!L23</f>
         <v>QTD</v>
       </c>
       <c r="C4" s="20" t="str">
-        <f>[1]Data!L23</f>
+        <f>[3]Data!L24</f>
         <v>YTD</v>
       </c>
       <c r="D4" s="20" t="str">
-        <f>[1]Data!L24</f>
+        <f>[3]Data!L25</f>
         <v>1 Year</v>
       </c>
       <c r="E4" s="20" t="str">
-        <f>[1]Data!L25</f>
+        <f>[3]Data!L26</f>
         <v>2 Years</v>
       </c>
       <c r="F4" s="20" t="str">
-        <f>[1]Data!L26</f>
+        <f>[3]Data!L27</f>
         <v>3 Years</v>
       </c>
       <c r="G4" s="20" t="str">
-        <f>[1]Data!L27</f>
+        <f>[3]Data!L28</f>
         <v>Since Inception*</v>
       </c>
     </row>
@@ -5765,28 +7953,28 @@
         <v>26</v>
       </c>
       <c r="B5" s="22">
-        <f>[1]Data!O22*100</f>
-        <v>3.0606696665000044</v>
+        <f>[3]Data!O23*100</f>
+        <v>2.2355597004000138</v>
       </c>
       <c r="C5" s="22">
-        <f>[1]Data!O23*100</f>
-        <v>7.6582488714993513</v>
+        <f>[3]Data!O24*100</f>
+        <v>2.2355597004000138</v>
       </c>
       <c r="D5" s="22">
-        <f>[1]Data!O24*100</f>
-        <v>7.6582488714993513</v>
+        <f>[3]Data!O25*100</f>
+        <v>17.904965746448486</v>
       </c>
       <c r="E5" s="22">
-        <f>[1]Data!O25*100</f>
-        <v>10.096358266309302</v>
+        <f>[3]Data!O26*100</f>
+        <v>9.9505987997082546</v>
       </c>
       <c r="F5" s="22">
-        <f>[1]Data!O26*100</f>
-        <v>9.3758685395332719</v>
+        <f>[3]Data!O27*100</f>
+        <v>9.1914960029621184</v>
       </c>
       <c r="G5" s="22">
-        <f>[1]Data!O27*100</f>
-        <v>16.115029699064777</v>
+        <f>[3]Data!O28*100</f>
+        <v>15.714968144363016</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5794,60 +7982,60 @@
         <v>27</v>
       </c>
       <c r="B6" s="24">
-        <f>[1]Data!P22*100</f>
-        <v>0.66873445476467452</v>
+        <f>[3]Data!P23*100</f>
+        <v>-3.3724634409411314</v>
       </c>
       <c r="C6" s="24">
-        <f>[1]Data!P23*100</f>
-        <v>7.5065168539325988</v>
+        <f>[3]Data!P24*100</f>
+        <v>-3.3724634409411314</v>
       </c>
       <c r="D6" s="24">
-        <f>[1]Data!P24*100</f>
-        <v>7.5065168539325988</v>
+        <f>[3]Data!P25*100</f>
+        <v>0.71022417812247607</v>
       </c>
       <c r="E6" s="24">
-        <f>[1]Data!P25*100</f>
-        <v>8.1100127004256386</v>
+        <f>[3]Data!P26*100</f>
+        <v>4.741336258219353</v>
       </c>
       <c r="F6" s="24">
-        <f>[1]Data!P26*100</f>
-        <v>5.3400569261567332</v>
+        <f>[3]Data!P27*100</f>
+        <v>4.6543452836169896</v>
       </c>
       <c r="G6" s="24">
-        <f>[1]Data!P27*100</f>
-        <v>4.1230811068915241</v>
+        <f>[3]Data!P28*100</f>
+        <v>3.0814228169778968</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="68"/>
-    </row>
-    <row r="20" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="65"/>
+    </row>
+    <row r="20" spans="1:22" s="58" customFormat="1" ht="14.4" customHeight="1">
       <c r="H20" s="25"/>
       <c r="I20" s="26" t="s">
         <v>2</v>
@@ -5892,382 +8080,410 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
-      <c r="H21" s="28">
+    <row r="21" spans="1:22" s="58" customFormat="1" ht="14.4" customHeight="1">
+      <c r="H21" s="66">
+        <v>2021</v>
+      </c>
+      <c r="I21" s="67">
+        <f>[3]Data!C10*100</f>
+        <v>0.63</v>
+      </c>
+      <c r="J21" s="67">
+        <f>[3]Data!D10*100</f>
+        <v>1.08</v>
+      </c>
+      <c r="K21" s="67">
+        <f>[3]Data!E10*100</f>
+        <v>0.51</v>
+      </c>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="67"/>
+    </row>
+    <row r="22" spans="1:22" s="58" customFormat="1" ht="14.4" customHeight="1">
+      <c r="H22" s="69">
         <v>2020</v>
       </c>
-      <c r="I21" s="29">
-        <f>[1]Data!C9*100</f>
+      <c r="I22" s="67">
+        <f>[3]Data!C9*100</f>
         <v>0.95</v>
       </c>
-      <c r="J21" s="29">
-        <f>[1]Data!D9*100</f>
+      <c r="J22" s="67">
+        <f>[3]Data!D9*100</f>
         <v>2.6100000000000003</v>
       </c>
-      <c r="K21" s="29">
-        <f>[1]Data!E9*100</f>
+      <c r="K22" s="67">
+        <f>[3]Data!E9*100</f>
         <v>-9.879999999999999</v>
       </c>
-      <c r="L21" s="29">
-        <f>[1]Data!F9*100</f>
+      <c r="L22" s="67">
+        <f>[3]Data!F9*100</f>
         <v>3.85</v>
       </c>
-      <c r="M21" s="29">
-        <f>[1]Data!G9*100</f>
+      <c r="M22" s="67">
+        <f>[3]Data!G9*100</f>
         <v>2.16</v>
       </c>
-      <c r="N21" s="29">
-        <f>[1]Data!H9*100</f>
+      <c r="N22" s="67">
+        <f>[3]Data!H9*100</f>
         <v>1.7500000000000002</v>
       </c>
-      <c r="O21" s="29">
-        <f>[1]Data!I9*100</f>
+      <c r="O22" s="67">
+        <f>[3]Data!I9*100</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="P21" s="29">
-        <f>[1]Data!J9*100</f>
+      <c r="P22" s="67">
+        <f>[3]Data!J9*100</f>
         <v>1.05</v>
       </c>
-      <c r="Q21" s="29">
-        <f>[1]Data!K9*100</f>
+      <c r="Q22" s="67">
+        <f>[3]Data!K9*100</f>
         <v>0.77</v>
       </c>
-      <c r="R21" s="29">
-        <f>[1]Data!L9*100</f>
+      <c r="R22" s="67">
+        <f>[3]Data!L9*100</f>
         <v>1.0699999999999998</v>
       </c>
-      <c r="S21" s="29">
-        <f>[1]Data!M9*100</f>
+      <c r="S22" s="67">
+        <f>[3]Data!M9*100</f>
         <v>1.01</v>
       </c>
-      <c r="T21" s="29">
-        <f>[1]Data!N9*100</f>
+      <c r="T22" s="67">
+        <f>[3]Data!N9*100</f>
         <v>0.95</v>
       </c>
-      <c r="U21" s="30">
-        <f>[1]Data!O9*100</f>
-        <v>7.6582488714993513</v>
-      </c>
-      <c r="V21" s="31">
-        <f>[1]Data!P9*100</f>
-        <v>7.5065168539325988</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
-      <c r="H22" s="32">
+      <c r="U22" s="67">
+        <f>[3]Data!O9*100</f>
+        <v>9.5099707520891474</v>
+      </c>
+      <c r="V22" s="67">
+        <f>[3]Data!P9*100</f>
+        <v>7.4316768094136565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="58" customFormat="1" ht="14.4" customHeight="1">
+      <c r="H23" s="30">
         <v>2019</v>
       </c>
-      <c r="I22" s="33">
-        <f>[1]Data!C8*100</f>
+      <c r="I23" s="31">
+        <f>[3]Data!C8*100</f>
         <v>0.25</v>
       </c>
-      <c r="J22" s="33">
-        <f>[1]Data!D8*100</f>
+      <c r="J23" s="31">
+        <f>[3]Data!D8*100</f>
         <v>0.75</v>
       </c>
-      <c r="K22" s="33">
-        <f>[1]Data!E8*100</f>
+      <c r="K23" s="31">
+        <f>[3]Data!E8*100</f>
         <v>1.49</v>
       </c>
-      <c r="L22" s="33">
-        <f>[1]Data!F8*100</f>
+      <c r="L23" s="31">
+        <f>[3]Data!F8*100</f>
         <v>0.74</v>
       </c>
-      <c r="M22" s="33">
-        <f>[1]Data!G8*100</f>
+      <c r="M23" s="31">
+        <f>[3]Data!G8*100</f>
         <v>1.3299999999999998</v>
       </c>
-      <c r="N22" s="33">
-        <f>[1]Data!H8*100</f>
+      <c r="N23" s="31">
+        <f>[3]Data!H8*100</f>
         <v>1.5699999999999998</v>
       </c>
-      <c r="O22" s="33">
-        <f>[1]Data!I8*100</f>
+      <c r="O23" s="31">
+        <f>[3]Data!I8*100</f>
         <v>0.51</v>
       </c>
-      <c r="P22" s="33">
-        <f>[1]Data!J8*100</f>
+      <c r="P23" s="31">
+        <f>[3]Data!J8*100</f>
         <v>1.39</v>
       </c>
-      <c r="Q22" s="33">
-        <f>[1]Data!K8*100</f>
+      <c r="Q23" s="31">
+        <f>[3]Data!K8*100</f>
         <v>0.45999999999999996</v>
       </c>
-      <c r="R22" s="33">
-        <f>[1]Data!L8*100</f>
+      <c r="R23" s="31">
+        <f>[3]Data!L8*100</f>
         <v>1.04</v>
       </c>
-      <c r="S22" s="33">
-        <f>[1]Data!M8*100</f>
+      <c r="S23" s="31">
+        <f>[3]Data!M8*100</f>
         <v>0.67999999999999994</v>
       </c>
-      <c r="T22" s="33">
-        <f>[1]Data!N8*100</f>
+      <c r="T23" s="31">
+        <f>[3]Data!N8*100</f>
         <v>1.72</v>
       </c>
-      <c r="U22" s="30">
-        <f>[1]Data!O8*100</f>
+      <c r="U23" s="70">
+        <f>[3]Data!O8*100</f>
         <v>12.589682913859956</v>
       </c>
-      <c r="V22" s="33">
-        <f>[1]Data!P8*100</f>
+      <c r="V23" s="31">
+        <f>[3]Data!P8*100</f>
         <v>8.7168963158409163</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
-      <c r="H23" s="32">
+    <row r="24" spans="1:22" s="58" customFormat="1" ht="14.4" customHeight="1">
+      <c r="H24" s="30">
         <v>2018</v>
       </c>
-      <c r="I23" s="33">
-        <f>[1]Data!C7*100</f>
+      <c r="I24" s="31">
+        <f>[3]Data!C7*100</f>
         <v>1.1900000000000002</v>
       </c>
-      <c r="J23" s="33">
-        <f>[1]Data!D7*100</f>
+      <c r="J24" s="31">
+        <f>[3]Data!D7*100</f>
         <v>0.74</v>
       </c>
-      <c r="K23" s="33">
-        <f>[1]Data!E7*100</f>
+      <c r="K24" s="31">
+        <f>[3]Data!E7*100</f>
         <v>0.8</v>
       </c>
-      <c r="L23" s="33">
-        <f>[1]Data!F7*100</f>
+      <c r="L24" s="31">
+        <f>[3]Data!F7*100</f>
         <v>0.65</v>
       </c>
-      <c r="M23" s="33">
-        <f>[1]Data!G7*100</f>
+      <c r="M24" s="31">
+        <f>[3]Data!G7*100</f>
         <v>0.71000000000000008</v>
       </c>
-      <c r="N23" s="33">
-        <f>[1]Data!H7*100</f>
+      <c r="N24" s="31">
+        <f>[3]Data!H7*100</f>
         <v>0.03</v>
       </c>
-      <c r="O23" s="33">
-        <f>[1]Data!I7*100</f>
+      <c r="O24" s="31">
+        <f>[3]Data!I7*100</f>
         <v>0.25</v>
       </c>
-      <c r="P23" s="33">
-        <f>[1]Data!J7*100</f>
+      <c r="P24" s="31">
+        <f>[3]Data!J7*100</f>
         <v>0.80999999999999994</v>
       </c>
-      <c r="Q23" s="33">
-        <f>[1]Data!K7*100</f>
+      <c r="Q24" s="31">
+        <f>[3]Data!K7*100</f>
         <v>0.67</v>
       </c>
-      <c r="R23" s="33">
-        <f>[1]Data!L7*100</f>
+      <c r="R24" s="31">
+        <f>[3]Data!L7*100</f>
         <v>0.45999999999999996</v>
       </c>
-      <c r="S23" s="33">
-        <f>[1]Data!M7*100</f>
+      <c r="S24" s="31">
+        <f>[3]Data!M7*100</f>
         <v>0.22999999999999998</v>
       </c>
-      <c r="T23" s="33">
-        <f>[1]Data!N7*100</f>
+      <c r="T24" s="31">
+        <f>[3]Data!N7*100</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="U23" s="30">
-        <f>[1]Data!O7*100</f>
+      <c r="U24" s="28">
+        <f>[3]Data!O7*100</f>
         <v>7.9490032605758154</v>
       </c>
-      <c r="V23" s="33">
-        <f>[1]Data!P7*100</f>
+      <c r="V24" s="31">
+        <f>[3]Data!P7*100</f>
         <v>1.1239414182195873E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
-      <c r="H24" s="32">
+    <row r="25" spans="1:22" s="58" customFormat="1" ht="14.4" customHeight="1">
+      <c r="H25" s="30">
         <v>2017</v>
       </c>
-      <c r="I24" s="33">
-        <f>[1]Data!C6*100</f>
+      <c r="I25" s="31">
+        <f>[3]Data!C6*100</f>
         <v>3.39</v>
       </c>
-      <c r="J24" s="33">
-        <f>[1]Data!D6*100</f>
+      <c r="J25" s="31">
+        <f>[3]Data!D6*100</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="K24" s="33">
-        <f>[1]Data!E6*100</f>
+      <c r="K25" s="31">
+        <f>[3]Data!E6*100</f>
         <v>3.09</v>
       </c>
-      <c r="L24" s="34">
-        <f>[1]Data!F6*100</f>
+      <c r="L25" s="32">
+        <f>[3]Data!F6*100</f>
         <v>2.04</v>
       </c>
-      <c r="M24" s="34">
-        <f>[1]Data!G6*100</f>
+      <c r="M25" s="32">
+        <f>[3]Data!G6*100</f>
         <v>3.3300000000000005</v>
       </c>
-      <c r="N24" s="34">
-        <f>[1]Data!H6*100</f>
+      <c r="N25" s="32">
+        <f>[3]Data!H6*100</f>
         <v>2.16</v>
       </c>
-      <c r="O24" s="34">
-        <f>[1]Data!I6*100</f>
+      <c r="O25" s="32">
+        <f>[3]Data!I6*100</f>
         <v>0.79</v>
       </c>
-      <c r="P24" s="34">
-        <f>[1]Data!J6*100</f>
+      <c r="P25" s="32">
+        <f>[3]Data!J6*100</f>
         <v>1.52</v>
       </c>
-      <c r="Q24" s="34">
-        <f>[1]Data!K6*100</f>
+      <c r="Q25" s="32">
+        <f>[3]Data!K6*100</f>
         <v>2.63</v>
       </c>
-      <c r="R24" s="34">
-        <f>[1]Data!L6*100</f>
+      <c r="R25" s="32">
+        <f>[3]Data!L6*100</f>
         <v>1.6199999999999999</v>
       </c>
-      <c r="S24" s="34">
-        <f>[1]Data!M6*100</f>
+      <c r="S25" s="32">
+        <f>[3]Data!M6*100</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="T24" s="34">
-        <f>[1]Data!N6*100</f>
+      <c r="T25" s="32">
+        <f>[3]Data!N6*100</f>
         <v>1.43</v>
       </c>
-      <c r="U24" s="30">
-        <f>[1]Data!O6*100</f>
+      <c r="U25" s="28">
+        <f>[3]Data!O6*100</f>
         <v>28.764679088503708</v>
       </c>
-      <c r="V24" s="31">
-        <f>[1]Data!P6*100</f>
+      <c r="V25" s="29">
+        <f>[3]Data!P6*100</f>
         <v>3.5418469213760684</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="61" customFormat="1" ht="14.45" customHeight="1">
-      <c r="H25" s="35">
+    <row r="26" spans="1:22">
+      <c r="H26" s="33">
         <v>2016</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="36">
-        <f>[1]Data!M5*100</f>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="34">
+        <f>[3]Data!M5*100</f>
         <v>7.0900000000000007</v>
       </c>
-      <c r="T25" s="36">
-        <f>[1]Data!N5*100</f>
+      <c r="T26" s="34">
+        <f>[3]Data!N5*100</f>
         <v>3.29</v>
       </c>
-      <c r="U25" s="37">
-        <f>[1]Data!O5*100</f>
+      <c r="U26" s="35">
+        <f>[3]Data!O5*100</f>
         <v>10.613260999999973</v>
       </c>
-      <c r="V25" s="36">
-        <f>[1]Data!P5*100</f>
+      <c r="V26" s="34">
+        <f>[3]Data!P5*100</f>
         <v>-2.2276639952508392</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+    </row>
+    <row r="29" spans="1:22" ht="48">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="51">
+        <f>[3]Data!U22</f>
+        <v>0.15714968144363017</v>
+      </c>
+      <c r="C30" s="51">
+        <f>[3]Data!V22</f>
+        <v>3.0814228169778968E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="52">
+        <f>[3]Data!U23</f>
+        <v>6.8014323386890257E-2</v>
+      </c>
+      <c r="C31" s="52">
+        <f>[3]Data!V23</f>
+        <v>3.4003684356440342E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="50">
+        <f>[3]Data!U24</f>
+        <v>2.3079356468888523</v>
+      </c>
+      <c r="C32" s="50">
+        <f>[3]Data!V24</f>
+        <v>0.90099731101568814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="54">
+        <f>[3]Data!U25</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="54">
+        <f>[3]Data!V25</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="52">
+        <f>[3]Data!U28</f>
+        <v>0.15313400092229904</v>
+      </c>
+      <c r="C34" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="45">
+        <f>[3]Data!U26</f>
+        <v>0.12529464154063602</v>
+      </c>
+      <c r="C35" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-    </row>
-    <row r="29" spans="1:22" ht="45">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="54">
-        <f>[1]Data!U22</f>
-        <v>0.16115029699064776</v>
-      </c>
-      <c r="C30" s="54">
-        <f>[1]Data!V22</f>
-        <v>4.1230811068915241E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="55">
-        <f>[1]Data!U23</f>
-        <v>6.9892965749240379E-2</v>
-      </c>
-      <c r="C31" s="55">
-        <f>[1]Data!V23</f>
-        <v>3.2690449247023003E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="53">
-        <f>[1]Data!U24</f>
-        <v>2.2953282246774789</v>
-      </c>
-      <c r="C32" s="53">
-        <f>[1]Data!V24</f>
-        <v>1.2391328966702448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="57">
-        <f>[1]Data!U25</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="57">
-        <f>[1]Data!V25</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="55">
-        <f>[1]Data!U28</f>
-        <v>0.15652290823751025</v>
-      </c>
-      <c r="C34" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="47">
-        <f>[1]Data!U26</f>
-        <v>9.6386070985051503E-2</v>
-      </c>
-      <c r="C35" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="50">
-        <f>[1]Data!U27</f>
-        <v>2.1161733596233609E-3</v>
-      </c>
-      <c r="C36" s="51">
+      <c r="B36" s="71">
+        <f>[3]Data!U27</f>
+        <v>4.0762539824993043E-3</v>
+      </c>
+      <c r="C36" s="48">
         <v>1</v>
       </c>
     </row>
@@ -6285,16 +8501,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:V126"/>
+  <dimension ref="B1:V127"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -6302,7 +8518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1">
+    <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6316,11 +8532,11 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -6365,7 +8581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="2:16" ht="15" hidden="1" thickBot="1">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
@@ -6400,7 +8616,7 @@
         <v>-0.11003817376698721</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="B5" s="11">
         <v>2016</v>
       </c>
@@ -6421,15 +8637,15 @@
         <v>3.2899999999999999E-2</v>
       </c>
       <c r="O5" s="13">
-        <f>E14/E12-1</f>
+        <f>E15/E13-1</f>
         <v>0.10613260999999974</v>
       </c>
       <c r="P5" s="13">
-        <f>F14/F12-1</f>
+        <f>F15/F13-1</f>
         <v>-2.2276639952508392E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="B6" s="11">
         <v>2017</v>
       </c>
@@ -6470,15 +8686,15 @@
         <v>1.43E-2</v>
       </c>
       <c r="O6" s="13">
-        <f>E26/E14-1</f>
+        <f>E27/E15-1</f>
         <v>0.28764679088503708</v>
       </c>
       <c r="P6" s="13">
-        <f>F26/F14-1</f>
+        <f>F27/F15-1</f>
         <v>3.5418469213760684E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="B7" s="11">
         <v>2018</v>
       </c>
@@ -6519,15 +8735,15 @@
         <v>1.14E-2</v>
       </c>
       <c r="O7" s="13">
-        <f>E38/E26-1</f>
+        <f>E39/E27-1</f>
         <v>7.9490032605758154E-2</v>
       </c>
       <c r="P7" s="13">
-        <f>F38/F26-1</f>
+        <f>F39/F27-1</f>
         <v>1.1239414182195873E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="B8" s="11">
         <v>2019</v>
       </c>
@@ -6568,15 +8784,15 @@
         <v>1.72E-2</v>
       </c>
       <c r="O8" s="13">
-        <f>E50/E38-1</f>
+        <f>E51/E39-1</f>
         <v>0.12589682913859956</v>
       </c>
       <c r="P8" s="13">
-        <f>F50/F38-1</f>
+        <f>F51/F39-1</f>
         <v>8.7168963158409163E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="B9" s="11">
         <v>2020</v>
       </c>
@@ -6617,1267 +8833,1355 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="O9" s="13">
-        <f>E62/E50-1</f>
-        <v>7.6582488714993513E-2</v>
+        <f>E63/E50-1</f>
+        <v>9.5099707520891474E-2</v>
       </c>
       <c r="P9" s="13">
-        <f>F62/F50-1</f>
-        <v>7.5065168539325988E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+        <f>F63/F50-1</f>
+        <v>7.4316768094136565E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B10" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="12">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13">
+        <f>E66/E63-1</f>
+        <v>2.2355597004000138E-2</v>
+      </c>
+      <c r="P10" s="13">
+        <f>F66/F63-1</f>
+        <v>-3.3724634409411314E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="C11" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="5">
-        <v>42675</v>
-      </c>
-      <c r="E12">
-        <v>10000</v>
-      </c>
-      <c r="F12">
-        <v>10000</v>
-      </c>
-      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="5">
-        <v>42704</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7.0900000000000005E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-2.3651924408825686E-2</v>
+        <v>42675</v>
       </c>
       <c r="E13">
-        <f>E12*(1+C13)</f>
-        <v>10709</v>
+        <v>10000</v>
       </c>
       <c r="F13">
-        <f>F12*(1+D13)</f>
-        <v>9763.4807559117435</v>
+        <v>10000</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="5">
+        <v>42704</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-2.3651924408825686E-2</v>
+      </c>
+      <c r="E14">
+        <f>E13*(1+C14)</f>
+        <v>10709</v>
+      </c>
+      <c r="F14">
+        <f>F13*(1+D14)</f>
+        <v>9763.4807559117435</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="5">
         <v>42735</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>1.4086005705338245E-3</v>
       </c>
-      <c r="E14">
-        <f t="shared" ref="E14:F25" si="0">E13*(1+C14)</f>
+      <c r="E15">
+        <f t="shared" ref="E15:F26" si="0">E14*(1+C15)</f>
         <v>11061.326099999998</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>9777.2336004749159</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="5">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="5">
         <v>42766</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>3.39E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>1.9631951507055323E-3</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>11436.305054789998</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>9796.4282180666833</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="5">
+    <row r="17" spans="2:22">
+      <c r="B17" s="5">
         <v>42794</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>6.7213735639439776E-3</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>11716.494528632353</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>9862.2736717126718</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="5">
+    <row r="18" spans="2:22">
+      <c r="B18" s="5">
         <v>42825</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <v>3.09E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <v>-5.2669596099441662E-4</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>12078.534209567091</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>9857.0792520035593</v>
       </c>
-    </row>
-    <row r="18" spans="2:22">
-      <c r="B18" s="5">
+      <c r="S18" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="39">
+        <v>1.7699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="5">
         <v>42855</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>7.7189073078680615E-3</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>12324.93630744226</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>9933.1651330760851</v>
       </c>
-      <c r="S18" t="s">
-        <v>37</v>
-      </c>
-      <c r="T18" s="41">
-        <v>7.2300000000000001E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22">
-      <c r="B19" s="5">
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="5">
         <v>42886</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>7.6946446269465785E-3</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>12735.356686480089</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>10009.597308795883</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="5">
+    <row r="21" spans="2:22">
+      <c r="B21" s="5">
         <v>42916</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>-1.0032915871776016E-3</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>13010.440390908059</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>9999.5547640249315</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" t="s">
         <v>15</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="5">
+      <c r="U21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="5">
         <v>42947</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>4.3041393947489404E-3</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>13113.222869996232</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>10042.594241614721</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M22" t="s">
         <v>26</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N22" t="s">
         <v>27</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O22" t="s">
         <v>26</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P22" t="s">
         <v>27</v>
       </c>
-      <c r="U21" t="s">
-        <v>26</v>
-      </c>
-      <c r="V21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22">
-      <c r="B22" s="5">
+      <c r="T22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="4">
+        <f>O28</f>
+        <v>0.15714968144363017</v>
+      </c>
+      <c r="V22" s="4">
+        <f>P28</f>
+        <v>3.0814228169778968E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="5">
         <v>42978</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>1.52E-2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="4">
         <v>8.9654730764874291E-3</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>13312.543857620176</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>10132.630849906005</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L23" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="3">
-        <f>E62/E59-1</f>
-        <v>3.0606696665000044E-2</v>
-      </c>
-      <c r="N22" s="3">
-        <f>F62/F59-1</f>
-        <v>6.6873445476467452E-3</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" ref="O22:P24" si="1">M22</f>
-        <v>3.0606696665000044E-2</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="M23" s="3">
+        <f>E66/E63-1</f>
+        <v>2.2355597004000138E-2</v>
+      </c>
+      <c r="N23" s="3">
+        <f>F66/F63-1</f>
+        <v>-3.3724634409411314E-2</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" ref="O23:P25" si="1">M23</f>
+        <v>2.2355597004000138E-2</v>
+      </c>
+      <c r="P23" s="3">
         <f t="shared" si="1"/>
-        <v>6.6873445476467452E-3</v>
-      </c>
-      <c r="T22" t="s">
-        <v>31</v>
-      </c>
-      <c r="U22" s="4">
-        <f>O27</f>
-        <v>0.16115029699064776</v>
-      </c>
-      <c r="V22" s="4">
-        <f>P27</f>
-        <v>4.1230811068915241E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22">
-      <c r="B23" s="5">
+        <v>-3.3724634409411314E-2</v>
+      </c>
+      <c r="T23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="3">
+        <f>STDEV(C14:C66)*SQRT(12)</f>
+        <v>6.8014323386890257E-2</v>
+      </c>
+      <c r="V23" s="3">
+        <f>STDEV(D14:D66)*SQRT(12)</f>
+        <v>3.4003684356440342E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="5">
         <v>43008</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>2.63E-2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D24" s="4">
         <v>-4.7602540755098399E-3</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>13662.663761075586</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>10084.396952607103</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L24" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="3">
-        <f>E62/E50-1</f>
-        <v>7.6582488714993513E-2</v>
-      </c>
-      <c r="N23" s="3">
-        <f>F62/F50-1</f>
-        <v>7.5065168539325988E-2</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="M24" s="3">
+        <f>E66/E63-1</f>
+        <v>2.2355597004000138E-2</v>
+      </c>
+      <c r="N24" s="3">
+        <f>F66/F63-1</f>
+        <v>-3.3724634409411314E-2</v>
+      </c>
+      <c r="O24" s="3">
         <f t="shared" si="1"/>
-        <v>7.6582488714993513E-2</v>
-      </c>
-      <c r="P23" s="3">
+        <v>2.2355597004000138E-2</v>
+      </c>
+      <c r="P24" s="3">
         <f t="shared" si="1"/>
-        <v>7.5065168539325988E-2</v>
-      </c>
-      <c r="T23" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="3">
-        <f>STDEV(C13:C62)*SQRT(12)</f>
-        <v>6.9892965749240379E-2</v>
-      </c>
-      <c r="V23" s="3">
-        <f>STDEV(D13:D62)*SQRT(12)</f>
-        <v>3.2690449247023003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22">
-      <c r="B24" s="5">
-        <f>EOMONTH(B23,1)</f>
+        <v>-3.3724634409411314E-2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="38">
+        <f>(U22-$T$18)/U23</f>
+        <v>2.3079356468888523</v>
+      </c>
+      <c r="V24" s="38">
+        <f>(V22-$T$18)/V23</f>
+        <v>0.90099731101568814</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="5">
+        <f>EOMONTH(B24,1)</f>
         <v>43039</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="4">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="4">
         <v>5.7886836141007869E-4</v>
       </c>
-      <c r="E24">
-        <f>E23*(1+C24)</f>
+      <c r="E25">
+        <f>E24*(1+C25)</f>
         <v>13883.998914005011</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>10090.234490946868</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="3">
-        <f>E62/E50-1</f>
-        <v>7.6582488714993513E-2</v>
-      </c>
-      <c r="N24" s="3">
-        <f>F62/F50-1</f>
-        <v>7.5065168539325988E-2</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="M25" s="3">
+        <f>E66/E54-1</f>
+        <v>0.17904965746448487</v>
+      </c>
+      <c r="N25" s="3">
+        <f>F66/F54-1</f>
+        <v>7.1022417812247607E-3</v>
+      </c>
+      <c r="O25" s="3">
         <f t="shared" si="1"/>
-        <v>7.6582488714993513E-2</v>
-      </c>
-      <c r="P24" s="3">
+        <v>0.17904965746448487</v>
+      </c>
+      <c r="P25" s="3">
         <f t="shared" si="1"/>
-        <v>7.5065168539325988E-2</v>
-      </c>
-      <c r="T24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U24" s="40">
-        <f>(U22-$T$18)/U23</f>
-        <v>2.2953282246774789</v>
-      </c>
-      <c r="V24" s="40">
-        <f>(V22-$T$18)/V23</f>
-        <v>1.2391328966702448</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22">
-      <c r="B25" s="5">
-        <f t="shared" ref="B25" si="2">EOMONTH(B24,1)</f>
+        <v>7.1022417812247607E-3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25">
+        <f>COUNTIF(C14:C66,"&lt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <f>COUNTIF(D14:D66,"&lt;0")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="5">
+        <f t="shared" ref="B26" si="2">EOMONTH(B25,1)</f>
         <v>43069</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="4">
         <v>1.14E-2</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D26" s="4">
         <v>-1.2845404090918722E-3</v>
       </c>
-      <c r="E25">
-        <f t="shared" ref="E25:F40" si="3">E24*(1+C25)</f>
+      <c r="E26">
+        <f t="shared" ref="E26:F41" si="3">E25*(1+C26)</f>
         <v>14042.276501624669</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>10077.273177006035</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L26" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="3">
-        <f>E62/E38-1</f>
-        <v>0.21212081035035313</v>
-      </c>
-      <c r="N25" s="3">
-        <f>F62/F38-1</f>
-        <v>0.16877748460861941</v>
-      </c>
-      <c r="O25" s="3">
-        <f>(1+M25)^(1/2)-1</f>
-        <v>0.10096358266309302</v>
-      </c>
-      <c r="P25" s="3">
-        <f>(1+N25)^(1/2)-1</f>
-        <v>8.1100127004256395E-2</v>
-      </c>
-      <c r="T25" t="s">
-        <v>33</v>
-      </c>
-      <c r="U25">
-        <f>COUNTIF(C13:C62,"&lt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <f>COUNTIF(D13:D62,"&lt;0")</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22">
-      <c r="B26" s="5">
-        <f>EOMONTH(B25,1)</f>
+      <c r="M26" s="3">
+        <f>E66/E42-1</f>
+        <v>0.20891341764144045</v>
+      </c>
+      <c r="N26" s="3">
+        <f>F66/F42-1</f>
+        <v>9.7074752115737795E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <f>(1+M26)^(1/2)-1</f>
+        <v>9.9505987997082546E-2</v>
+      </c>
+      <c r="P26" s="3">
+        <f>(1+N26)^(1/2)-1</f>
+        <v>4.741336258219353E-2</v>
+      </c>
+      <c r="T26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="38">
+        <f>COVAR(C14:C66,D14:D66)/VAR(D14:D66)</f>
+        <v>0.12529464154063602</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="5">
+        <f>EOMONTH(B26,1)</f>
         <v>43100</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>1.43E-2</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>4.5900383894119656E-3</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <f t="shared" si="3"/>
         <v>14243.081055597901</v>
       </c>
-      <c r="F26">
-        <f>F25*(1+D26)</f>
+      <c r="F27">
+        <f>F26*(1+D27)</f>
         <v>10123.528247749084</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L27" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="3">
-        <f>E62/E26-1</f>
-        <v>0.30847233308722077</v>
-      </c>
-      <c r="N26" s="3">
-        <f>F62/F26-1</f>
-        <v>0.16890884835098263</v>
-      </c>
-      <c r="O26" s="3">
-        <f>(1+M26)^(1/3)-1</f>
-        <v>9.3758685395332719E-2</v>
-      </c>
-      <c r="P26" s="3">
-        <f>(1+N26)^(1/3)-1</f>
-        <v>5.3400569261567332E-2</v>
-      </c>
-      <c r="T26" t="s">
-        <v>34</v>
-      </c>
-      <c r="U26" s="40">
-        <f>COVAR(C13:C62,D13:D62)/VAR(D13:D62)</f>
-        <v>9.6386070985051503E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22">
-      <c r="B27" s="5">
-        <f t="shared" ref="B27:B62" si="4">EOMONTH(B26,1)</f>
+      <c r="M27" s="3">
+        <f>E66/E30-1</f>
+        <v>0.30186649038103708</v>
+      </c>
+      <c r="N27" s="3">
+        <f>F66/F30-1</f>
+        <v>0.14623006427041196</v>
+      </c>
+      <c r="O27" s="3">
+        <f>(1+M27)^(1/3)-1</f>
+        <v>9.1914960029621184E-2</v>
+      </c>
+      <c r="P27" s="3">
+        <f>(1+N27)^(1/3)-1</f>
+        <v>4.6543452836169896E-2</v>
+      </c>
+      <c r="T27" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="3">
+        <f>RSQ(C14:C66,D14:D66)</f>
+        <v>4.0762539824993043E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="5">
+        <f t="shared" ref="B28:B66" si="4">EOMONTH(B27,1)</f>
         <v>43131</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C28" s="4">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="4">
         <v>-1.1517956185831513E-2</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <f t="shared" si="3"/>
         <v>14412.573720159517</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <f t="shared" si="3"/>
         <v>10006.925892945483</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L28" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="3">
-        <f>E62/E12-1</f>
-        <v>0.86366774991685813</v>
-      </c>
-      <c r="N27" s="3">
-        <f>F62/F12-1</f>
-        <v>0.18334817453250229</v>
-      </c>
-      <c r="O27" s="17">
-        <f>(1+M27)^(12/50)-1</f>
-        <v>0.16115029699064776</v>
-      </c>
-      <c r="P27" s="17">
-        <f>(1+N27)^(12/50)-1</f>
-        <v>4.1230811068915241E-2</v>
-      </c>
-      <c r="T27" t="s">
-        <v>35</v>
-      </c>
-      <c r="U27" s="3">
-        <f>RSQ(C13:C62,D13:D62)</f>
-        <v>2.1161733596233609E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22">
-      <c r="B28" s="5">
-        <f t="shared" si="4"/>
-        <v>43159</v>
-      </c>
-      <c r="C28" s="4">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="D28" s="4">
-        <v>-9.4769626260627904E-3</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="3"/>
-        <v>14519.226765688698</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>9912.090630256258</v>
+      <c r="M28" s="3">
+        <f>E66/E13-1</f>
+        <v>0.90533115508335094</v>
+      </c>
+      <c r="N28" s="3">
+        <f>F66/F13-1</f>
+        <v>0.14344018996734942</v>
+      </c>
+      <c r="O28" s="17">
+        <f>(1+M28)^(12/53)-1</f>
+        <v>0.15714968144363017</v>
+      </c>
+      <c r="P28" s="17">
+        <f>(1+N28)^(12/53)-1</f>
+        <v>3.0814228169778968E-2</v>
       </c>
       <c r="T28" t="s">
         <v>36</v>
       </c>
       <c r="U28" s="3">
         <f>(U22-$T$18)-U26*(V22-T18)</f>
-        <v>0.15652290823751025</v>
+        <v>0.15313400092229904</v>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="5">
         <f t="shared" si="4"/>
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="C29" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>6.4133597520499297E-3</v>
+        <v>-9.4769626260627904E-3</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>14635.380579814208</v>
+        <v>14519.226765688698</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>9975.6604333630148</v>
+        <v>9912.090630256258</v>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="5">
         <f t="shared" si="4"/>
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="C30" s="4">
-        <v>6.4999999999999997E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D30" s="4">
-        <v>-7.4387050702213742E-3</v>
+        <v>6.4133597520499297E-3</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>14730.510553582999</v>
+        <v>14635.380579814208</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>9901.4544375185505</v>
+        <v>9975.6604333630148</v>
       </c>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="5">
         <f t="shared" si="4"/>
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="C31" s="4">
-        <v>7.1000000000000004E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="D31" s="4">
-        <v>7.1347203069729304E-3</v>
+        <v>-7.4387050702213742E-3</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>14835.097178513441</v>
+        <v>14730.510553582999</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>9972.0985455624814</v>
+        <v>9901.4544375185505</v>
       </c>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="5">
         <f t="shared" si="4"/>
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="C32" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D32" s="4">
-        <v>-1.2303051950629529E-3</v>
+        <v>7.1347203069729304E-3</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>14839.547707666994</v>
+        <v>14835.097178513441</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>9959.8298209161967</v>
+        <v>9972.0985455624814</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="5">
         <f t="shared" si="4"/>
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="C33" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D33" s="4">
-        <v>2.3841691170622958E-4</v>
+        <v>-1.2303051950629529E-3</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>14876.64657693616</v>
+        <v>14839.547707666994</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>9962.2044127832196</v>
+        <v>9959.8298209161967</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="5">
         <f t="shared" si="4"/>
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="C34" s="4">
-        <v>8.0999999999999996E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D34" s="4">
-        <v>6.4357222310504891E-3</v>
+        <v>2.3841691170622958E-4</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>14997.147414209343</v>
+        <v>14876.64657693616</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>10026.318393192838</v>
+        <v>9962.2044127832196</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="5">
         <f t="shared" si="4"/>
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="C35" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="D35" s="4">
-        <v>-6.4389752901239383E-3</v>
+        <v>6.4357222310504891E-3</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>15097.628301884544</v>
+        <v>14997.147414209343</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>9961.7591768081547</v>
+        <v>10026.318393192838</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="5">
         <f t="shared" si="4"/>
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="C36" s="4">
-        <v>4.5999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="D36" s="4">
-        <v>-7.900996687639994E-3</v>
+        <v>-6.4389752901239383E-3</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>15167.077392073212</v>
+        <v>15097.628301884544</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>9883.0513505491253</v>
+        <v>9961.7591768081547</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="5">
         <f t="shared" si="4"/>
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="C37" s="4">
-        <v>2.3E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="D37" s="4">
-        <v>5.9666826846067611E-3</v>
+        <v>-7.900996687639994E-3</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>15201.961670074979</v>
+        <v>15167.077392073212</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>9942.0203819135259</v>
+        <v>9883.0513505491253</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="5">
         <f t="shared" si="4"/>
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="C38" s="4">
-        <v>1.14E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="D38" s="4">
-        <v>1.8371083953664158E-2</v>
+        <v>5.9666826846067611E-3</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>15375.264033113835</v>
+        <v>15201.961670074979</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>10124.6660730187</v>
+        <v>9942.0203819135259</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="5">
         <f t="shared" si="4"/>
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="C39" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>1.14E-2</v>
       </c>
       <c r="D39" s="4">
-        <v>1.0622495846770441E-2</v>
+        <v>1.8371083953664158E-2</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>15413.702193196619</v>
+        <v>15375.264033113835</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>10232.215296329277</v>
+        <v>10124.6660730187</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="5">
         <f t="shared" si="4"/>
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="C40" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D40" s="4">
-        <v>-5.8017540636468024E-4</v>
+        <v>1.0622495846770441E-2</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>15529.304959645595</v>
+        <v>15413.702193196619</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>10226.278816661719</v>
+        <v>10232.215296329277</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="5">
         <f t="shared" si="4"/>
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="C41" s="4">
-        <v>1.49E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="D41" s="4">
-        <v>1.9200441189276107E-2</v>
+        <v>-5.8017540636468024E-4</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:F56" si="5">E40*(1+C41)</f>
-        <v>15760.691603544314</v>
+        <f t="shared" si="3"/>
+        <v>15529.304959645595</v>
       </c>
       <c r="F41">
-        <f t="shared" si="5"/>
-        <v>10422.627881666172</v>
+        <f t="shared" si="3"/>
+        <v>10226.278816661719</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="5">
         <f t="shared" si="4"/>
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="C42" s="4">
-        <v>7.4000000000000003E-3</v>
+        <v>1.49E-2</v>
       </c>
       <c r="D42" s="4">
-        <v>2.5630924184683046E-4</v>
+        <v>1.9200441189276107E-2</v>
       </c>
       <c r="E42">
-        <f t="shared" si="5"/>
-        <v>15877.320721410542</v>
+        <f t="shared" ref="E42:F57" si="5">E41*(1+C42)</f>
+        <v>15760.691603544314</v>
       </c>
       <c r="F42">
         <f t="shared" si="5"/>
-        <v>10425.299297516574</v>
+        <v>10422.627881666172</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="5">
         <f t="shared" si="4"/>
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="C43" s="4">
-        <v>1.3299999999999999E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="D43" s="4">
-        <v>1.7751984701310342E-2</v>
+        <v>2.5630924184683046E-4</v>
       </c>
       <c r="E43">
         <f t="shared" si="5"/>
-        <v>16088.489087005304</v>
+        <v>15877.320721410542</v>
       </c>
       <c r="F43">
         <f t="shared" si="5"/>
-        <v>10610.369051152669</v>
+        <v>10425.299297516574</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="5">
         <f t="shared" si="4"/>
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="C44" s="4">
-        <v>1.5699999999999999E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="D44" s="4">
-        <v>1.2556066356456119E-2</v>
+        <v>1.7751984701310342E-2</v>
       </c>
       <c r="E44">
         <f t="shared" si="5"/>
-        <v>16341.078365671288</v>
+        <v>16088.489087005304</v>
       </c>
       <c r="F44">
         <f t="shared" si="5"/>
-        <v>10743.593549025431</v>
+        <v>10610.369051152669</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="5">
         <f t="shared" si="4"/>
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="C45" s="4">
-        <v>5.1000000000000004E-3</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="D45" s="4">
-        <v>2.2010305243331807E-3</v>
+        <v>1.2556066356456119E-2</v>
       </c>
       <c r="E45">
         <f t="shared" si="5"/>
-        <v>16424.417865336214</v>
+        <v>16341.078365671288</v>
       </c>
       <c r="F45">
         <f t="shared" si="5"/>
-        <v>10767.240526367865</v>
+        <v>10743.593549025431</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="5">
         <f t="shared" si="4"/>
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="C46" s="4">
-        <v>1.3899999999999999E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="D46" s="4">
-        <v>2.5913282395048975E-2</v>
+        <v>2.2010305243331807E-3</v>
       </c>
       <c r="E46">
         <f t="shared" si="5"/>
-        <v>16652.717273664388</v>
+        <v>16424.417865336214</v>
       </c>
       <c r="F46">
         <f t="shared" si="5"/>
-        <v>11046.255070743051</v>
+        <v>10767.240526367865</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="5">
         <f t="shared" si="4"/>
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="C47" s="4">
-        <v>4.5999999999999999E-3</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="D47" s="4">
-        <v>-5.3249376368741386E-3</v>
+        <v>2.5913282395048975E-2</v>
       </c>
       <c r="E47">
         <f t="shared" si="5"/>
-        <v>16729.319773123243</v>
+        <v>16652.717273664388</v>
       </c>
       <c r="F47">
         <f t="shared" si="5"/>
-        <v>10987.43445137034</v>
+        <v>11046.255070743051</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="5">
         <f t="shared" si="4"/>
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="C48" s="4">
-        <v>1.04E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="D48" s="4">
-        <v>3.0121566861773807E-3</v>
+        <v>-5.3249376368741386E-3</v>
       </c>
       <c r="E48">
         <f t="shared" si="5"/>
-        <v>16903.304698763724</v>
+        <v>16729.319773123243</v>
       </c>
       <c r="F48">
         <f t="shared" si="5"/>
-        <v>11020.530325516971</v>
+        <v>10987.43445137034</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="5">
         <f t="shared" si="4"/>
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="C49" s="4">
-        <v>6.7999999999999996E-3</v>
+        <v>1.04E-2</v>
       </c>
       <c r="D49" s="4">
-        <v>-5.1174086160998833E-4</v>
+        <v>3.0121566861773807E-3</v>
       </c>
       <c r="E49">
         <f t="shared" si="5"/>
-        <v>17018.247170715316</v>
+        <v>16903.304698763724</v>
       </c>
       <c r="F49">
         <f t="shared" si="5"/>
-        <v>11014.890669832792</v>
+        <v>11020.530325516971</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="5">
         <f t="shared" si="4"/>
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="C50" s="4">
-        <v>1.72E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D50" s="4">
-        <v>-6.9614425905561994E-4</v>
+        <v>-5.1174086160998833E-4</v>
       </c>
       <c r="E50">
         <f t="shared" si="5"/>
-        <v>17310.961022051622</v>
+        <v>17018.247170715316</v>
       </c>
       <c r="F50">
         <f t="shared" si="5"/>
-        <v>11007.222716928862</v>
+        <v>11014.890669832792</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="5">
         <f t="shared" si="4"/>
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="C51" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>1.72E-2</v>
       </c>
       <c r="D51" s="4">
-        <v>1.9244943820224902E-2</v>
+        <v>-6.9614425905561994E-4</v>
       </c>
       <c r="E51">
         <f t="shared" si="5"/>
-        <v>17475.415151761114</v>
+        <v>17310.961022051622</v>
       </c>
       <c r="F51">
         <f t="shared" si="5"/>
-        <v>11219.056099732861</v>
+        <v>11007.222716928862</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="5">
         <f t="shared" si="4"/>
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="C52" s="4">
-        <v>2.6100000000000002E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="D52" s="4">
-        <v>1.7999664876400923E-2</v>
+        <v>1.9244943820224902E-2</v>
       </c>
       <c r="E52">
         <f t="shared" si="5"/>
-        <v>17931.523487222079</v>
+        <v>17475.415151761114</v>
       </c>
       <c r="F52">
         <f t="shared" si="5"/>
-        <v>11420.995349757593</v>
+        <v>11219.056099732861</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="5">
         <f t="shared" si="4"/>
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="C53" s="4">
-        <v>-9.8799999999999999E-2</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="D53" s="4">
-        <v>-5.8865825767550062E-3</v>
+        <v>1.7999664876400923E-2</v>
       </c>
       <c r="E53">
         <f t="shared" si="5"/>
-        <v>16159.888966684537</v>
+        <v>17931.523487222079</v>
       </c>
       <c r="F53">
         <f t="shared" si="5"/>
-        <v>11353.76471752251</v>
+        <v>11420.995349757593</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="5">
         <f t="shared" si="4"/>
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="C54" s="4">
-        <v>3.85E-2</v>
+        <v>-9.8799999999999999E-2</v>
       </c>
       <c r="D54" s="4">
-        <v>1.7777390470795629E-2</v>
+        <v>-5.8865825767550062E-3</v>
       </c>
       <c r="E54">
         <f t="shared" si="5"/>
-        <v>16782.04469190189</v>
+        <v>16159.888966684537</v>
       </c>
       <c r="F54">
         <f t="shared" si="5"/>
-        <v>11555.605026219451</v>
+        <v>11353.76471752251</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="5">
         <f t="shared" si="4"/>
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="C55" s="4">
-        <v>2.1600000000000001E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>4.6535522400839024E-3</v>
+        <v>1.7777390470795629E-2</v>
       </c>
       <c r="E55">
         <f t="shared" si="5"/>
-        <v>17144.536857246971</v>
+        <v>16782.04469190189</v>
       </c>
       <c r="F55">
         <f t="shared" si="5"/>
-        <v>11609.379637874739</v>
+        <v>11555.605026219451</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="5">
         <f t="shared" si="4"/>
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="C56" s="4">
-        <v>1.7500000000000002E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>6.302413581509736E-3</v>
+        <v>4.6535522400839024E-3</v>
       </c>
       <c r="E56">
         <f t="shared" si="5"/>
-        <v>17444.566252248795</v>
+        <v>17144.536857246971</v>
       </c>
       <c r="F56">
         <f t="shared" si="5"/>
-        <v>11682.546749777384</v>
+        <v>11609.379637874739</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="5">
         <f t="shared" si="4"/>
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="C57" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>1.4935359155794359E-2</v>
+        <v>6.302413581509736E-3</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:F62" si="6">E56*(1+C57)</f>
-        <v>17758.568444789275</v>
+        <f t="shared" si="5"/>
+        <v>17444.566252248795</v>
       </c>
       <c r="F57">
-        <f t="shared" si="6"/>
-        <v>11857.029781339668</v>
+        <f t="shared" si="5"/>
+        <v>11682.546749777384</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="5">
         <f t="shared" si="4"/>
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="C58" s="4">
-        <v>1.0500000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D58" s="4">
-        <v>-8.0733317200578636E-3</v>
+        <v>1.4935359155794359E-2</v>
       </c>
       <c r="E58">
-        <f t="shared" si="6"/>
-        <v>17945.033413459561</v>
+        <f t="shared" ref="E58:F66" si="6">E57*(1+C58)</f>
+        <v>17758.568444789275</v>
       </c>
       <c r="F58">
         <f t="shared" si="6"/>
-        <v>11761.304046700308</v>
+        <v>11857.029781339668</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="5">
         <f t="shared" si="4"/>
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="C59" s="4">
-        <v>7.7000000000000002E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="D59" s="4">
-        <v>-5.4680894915926093E-4</v>
+        <v>-8.0733317200578636E-3</v>
       </c>
       <c r="E59">
         <f t="shared" si="6"/>
-        <v>18083.210170743201</v>
+        <v>17945.033413459561</v>
       </c>
       <c r="F59">
         <f t="shared" si="6"/>
-        <v>11754.872860393789</v>
+        <v>11761.304046700308</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="5">
         <f t="shared" si="4"/>
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="C60" s="4">
-        <v>1.0699999999999999E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="D60" s="4">
-        <v>-4.465243905005245E-3</v>
+        <v>-5.4680894915926093E-4</v>
       </c>
       <c r="E60">
         <f t="shared" si="6"/>
-        <v>18276.700519570153</v>
+        <v>18083.210170743201</v>
       </c>
       <c r="F60">
         <f t="shared" si="6"/>
-        <v>11702.384485999804</v>
+        <v>11754.872860393789</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="5">
         <f t="shared" si="4"/>
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="C61" s="4">
-        <v>1.01E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="D61" s="4">
-        <v>9.8117961378469953E-3</v>
+        <v>-4.465243905005245E-3</v>
       </c>
       <c r="E61">
         <f t="shared" si="6"/>
-        <v>18461.295194817812</v>
+        <v>18276.700519570153</v>
       </c>
       <c r="F61">
         <f t="shared" si="6"/>
-        <v>11817.205896903139</v>
+        <v>11702.384485999804</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="5">
         <f t="shared" si="4"/>
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="C62" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>1.01E-2</v>
       </c>
       <c r="D62" s="4">
-        <v>1.3773009088511312E-3</v>
+        <v>9.8117961378469953E-3</v>
       </c>
       <c r="E62">
         <f t="shared" si="6"/>
-        <v>18636.677499168582</v>
+        <v>18461.295194817812</v>
       </c>
       <c r="F62">
         <f t="shared" si="6"/>
+        <v>11817.205896903139</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="5">
+        <f t="shared" si="4"/>
+        <v>44196</v>
+      </c>
+      <c r="C63" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1.3773009088511312E-3</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>18636.677499168582</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
         <v>11833.481745325023</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="63"/>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="63"/>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="63"/>
-    </row>
-    <row r="115" spans="8:8">
-      <c r="H115" s="4"/>
+    <row r="64" spans="2:6">
+      <c r="B64" s="5">
+        <f t="shared" si="4"/>
+        <v>44227</v>
+      </c>
+      <c r="C64" s="4">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-7.1696724943771661E-3</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>18754.088567413342</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>11748.639556742852</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="5">
+        <f t="shared" si="4"/>
+        <v>44255</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D65" s="4">
+        <v>-1.4438685064866674E-2</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>18956.632723941406</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>11579.004650242407</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="5">
+        <f t="shared" si="4"/>
+        <v>44286</v>
+      </c>
+      <c r="C66" s="4">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-1.2488357586581067E-2</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>19053.31155083351</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="6"/>
+        <v>11434.401899673494</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="D71" s="60"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="D72" s="60"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="D73" s="60"/>
     </row>
     <row r="116" spans="8:8">
       <c r="H116" s="4"/>
@@ -7911,6 +10215,9 @@
     </row>
     <row r="126" spans="8:8">
       <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="8:8">
+      <c r="H127" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7923,742 +10230,798 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5">
         <f>Data!B12</f>
-        <v>42675</v>
-      </c>
-      <c r="B2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="str">
         <f>Data!E12</f>
-        <v>10000</v>
-      </c>
-      <c r="C2" s="40">
+        <v>Wickapogue Structured Credit Fund</v>
+      </c>
+      <c r="C2" s="38" t="str">
         <f>Data!F12</f>
-        <v>10000</v>
+        <v>Barclays U.S. Agg. Bond TR Index</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5">
         <f>Data!B13</f>
-        <v>42704</v>
-      </c>
-      <c r="B3" s="40">
+        <v>42675</v>
+      </c>
+      <c r="B3" s="38">
         <f>Data!E13</f>
-        <v>10709</v>
-      </c>
-      <c r="C3" s="40">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="38">
         <f>Data!F13</f>
-        <v>9763.4807559117435</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5">
         <f>Data!B14</f>
-        <v>42735</v>
-      </c>
-      <c r="B4" s="40">
+        <v>42704</v>
+      </c>
+      <c r="B4" s="38">
         <f>Data!E14</f>
-        <v>11061.326099999998</v>
-      </c>
-      <c r="C4" s="40">
+        <v>10709</v>
+      </c>
+      <c r="C4" s="38">
         <f>Data!F14</f>
-        <v>9777.2336004749159</v>
+        <v>9763.4807559117435</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5">
         <f>Data!B15</f>
-        <v>42766</v>
-      </c>
-      <c r="B5" s="40">
+        <v>42735</v>
+      </c>
+      <c r="B5" s="38">
         <f>Data!E15</f>
-        <v>11436.305054789998</v>
-      </c>
-      <c r="C5" s="40">
+        <v>11061.326099999998</v>
+      </c>
+      <c r="C5" s="38">
         <f>Data!F15</f>
-        <v>9796.4282180666833</v>
+        <v>9777.2336004749159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5">
         <f>Data!B16</f>
-        <v>42794</v>
-      </c>
-      <c r="B6" s="40">
+        <v>42766</v>
+      </c>
+      <c r="B6" s="38">
         <f>Data!E16</f>
-        <v>11716.494528632353</v>
-      </c>
-      <c r="C6" s="40">
+        <v>11436.305054789998</v>
+      </c>
+      <c r="C6" s="38">
         <f>Data!F16</f>
-        <v>9862.2736717126718</v>
+        <v>9796.4282180666833</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5">
         <f>Data!B17</f>
-        <v>42825</v>
-      </c>
-      <c r="B7" s="40">
+        <v>42794</v>
+      </c>
+      <c r="B7" s="38">
         <f>Data!E17</f>
-        <v>12078.534209567091</v>
-      </c>
-      <c r="C7" s="40">
+        <v>11716.494528632353</v>
+      </c>
+      <c r="C7" s="38">
         <f>Data!F17</f>
-        <v>9857.0792520035593</v>
+        <v>9862.2736717126718</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5">
         <f>Data!B18</f>
-        <v>42855</v>
-      </c>
-      <c r="B8" s="40">
+        <v>42825</v>
+      </c>
+      <c r="B8" s="38">
         <f>Data!E18</f>
-        <v>12324.93630744226</v>
-      </c>
-      <c r="C8" s="40">
+        <v>12078.534209567091</v>
+      </c>
+      <c r="C8" s="38">
         <f>Data!F18</f>
-        <v>9933.1651330760851</v>
+        <v>9857.0792520035593</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5">
         <f>Data!B19</f>
-        <v>42886</v>
-      </c>
-      <c r="B9" s="40">
+        <v>42855</v>
+      </c>
+      <c r="B9" s="38">
         <f>Data!E19</f>
-        <v>12735.356686480089</v>
-      </c>
-      <c r="C9" s="40">
+        <v>12324.93630744226</v>
+      </c>
+      <c r="C9" s="38">
         <f>Data!F19</f>
-        <v>10009.597308795883</v>
+        <v>9933.1651330760851</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5">
         <f>Data!B20</f>
-        <v>42916</v>
-      </c>
-      <c r="B10" s="40">
+        <v>42886</v>
+      </c>
+      <c r="B10" s="38">
         <f>Data!E20</f>
-        <v>13010.440390908059</v>
-      </c>
-      <c r="C10" s="40">
+        <v>12735.356686480089</v>
+      </c>
+      <c r="C10" s="38">
         <f>Data!F20</f>
-        <v>9999.5547640249315</v>
+        <v>10009.597308795883</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5">
         <f>Data!B21</f>
-        <v>42947</v>
-      </c>
-      <c r="B11" s="40">
+        <v>42916</v>
+      </c>
+      <c r="B11" s="38">
         <f>Data!E21</f>
-        <v>13113.222869996232</v>
-      </c>
-      <c r="C11" s="40">
+        <v>13010.440390908059</v>
+      </c>
+      <c r="C11" s="38">
         <f>Data!F21</f>
-        <v>10042.594241614721</v>
+        <v>9999.5547640249315</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5">
         <f>Data!B22</f>
-        <v>42978</v>
-      </c>
-      <c r="B12" s="40">
+        <v>42947</v>
+      </c>
+      <c r="B12" s="38">
         <f>Data!E22</f>
-        <v>13312.543857620176</v>
-      </c>
-      <c r="C12" s="40">
+        <v>13113.222869996232</v>
+      </c>
+      <c r="C12" s="38">
         <f>Data!F22</f>
-        <v>10132.630849906005</v>
+        <v>10042.594241614721</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5">
         <f>Data!B23</f>
-        <v>43008</v>
-      </c>
-      <c r="B13" s="40">
+        <v>42978</v>
+      </c>
+      <c r="B13" s="38">
         <f>Data!E23</f>
-        <v>13662.663761075586</v>
-      </c>
-      <c r="C13" s="40">
+        <v>13312.543857620176</v>
+      </c>
+      <c r="C13" s="38">
         <f>Data!F23</f>
-        <v>10084.396952607103</v>
+        <v>10132.630849906005</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5">
         <f>Data!B24</f>
-        <v>43039</v>
-      </c>
-      <c r="B14" s="40">
+        <v>43008</v>
+      </c>
+      <c r="B14" s="38">
         <f>Data!E24</f>
-        <v>13883.998914005011</v>
-      </c>
-      <c r="C14" s="40">
+        <v>13662.663761075586</v>
+      </c>
+      <c r="C14" s="38">
         <f>Data!F24</f>
-        <v>10090.234490946868</v>
+        <v>10084.396952607103</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5">
         <f>Data!B25</f>
-        <v>43069</v>
-      </c>
-      <c r="B15" s="40">
+        <v>43039</v>
+      </c>
+      <c r="B15" s="38">
         <f>Data!E25</f>
-        <v>14042.276501624669</v>
-      </c>
-      <c r="C15" s="40">
+        <v>13883.998914005011</v>
+      </c>
+      <c r="C15" s="38">
         <f>Data!F25</f>
-        <v>10077.273177006035</v>
+        <v>10090.234490946868</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5">
         <f>Data!B26</f>
-        <v>43100</v>
-      </c>
-      <c r="B16" s="40">
+        <v>43069</v>
+      </c>
+      <c r="B16" s="38">
         <f>Data!E26</f>
-        <v>14243.081055597901</v>
-      </c>
-      <c r="C16" s="40">
+        <v>14042.276501624669</v>
+      </c>
+      <c r="C16" s="38">
         <f>Data!F26</f>
-        <v>10123.528247749084</v>
+        <v>10077.273177006035</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5">
         <f>Data!B27</f>
-        <v>43131</v>
-      </c>
-      <c r="B17" s="40">
+        <v>43100</v>
+      </c>
+      <c r="B17" s="38">
         <f>Data!E27</f>
-        <v>14412.573720159517</v>
-      </c>
-      <c r="C17" s="40">
+        <v>14243.081055597901</v>
+      </c>
+      <c r="C17" s="38">
         <f>Data!F27</f>
-        <v>10006.925892945483</v>
+        <v>10123.528247749084</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5">
         <f>Data!B28</f>
-        <v>43159</v>
-      </c>
-      <c r="B18" s="40">
+        <v>43131</v>
+      </c>
+      <c r="B18" s="38">
         <f>Data!E28</f>
-        <v>14519.226765688698</v>
-      </c>
-      <c r="C18" s="40">
+        <v>14412.573720159517</v>
+      </c>
+      <c r="C18" s="38">
         <f>Data!F28</f>
-        <v>9912.090630256258</v>
+        <v>10006.925892945483</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5">
         <f>Data!B29</f>
-        <v>43190</v>
-      </c>
-      <c r="B19" s="40">
+        <v>43159</v>
+      </c>
+      <c r="B19" s="38">
         <f>Data!E29</f>
-        <v>14635.380579814208</v>
-      </c>
-      <c r="C19" s="40">
+        <v>14519.226765688698</v>
+      </c>
+      <c r="C19" s="38">
         <f>Data!F29</f>
-        <v>9975.6604333630148</v>
+        <v>9912.090630256258</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5">
         <f>Data!B30</f>
-        <v>43220</v>
-      </c>
-      <c r="B20" s="40">
+        <v>43190</v>
+      </c>
+      <c r="B20" s="38">
         <f>Data!E30</f>
-        <v>14730.510553582999</v>
-      </c>
-      <c r="C20" s="40">
+        <v>14635.380579814208</v>
+      </c>
+      <c r="C20" s="38">
         <f>Data!F30</f>
-        <v>9901.4544375185505</v>
+        <v>9975.6604333630148</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5">
         <f>Data!B31</f>
-        <v>43251</v>
-      </c>
-      <c r="B21" s="40">
+        <v>43220</v>
+      </c>
+      <c r="B21" s="38">
         <f>Data!E31</f>
-        <v>14835.097178513441</v>
-      </c>
-      <c r="C21" s="40">
+        <v>14730.510553582999</v>
+      </c>
+      <c r="C21" s="38">
         <f>Data!F31</f>
-        <v>9972.0985455624814</v>
+        <v>9901.4544375185505</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5">
         <f>Data!B32</f>
-        <v>43281</v>
-      </c>
-      <c r="B22" s="40">
+        <v>43251</v>
+      </c>
+      <c r="B22" s="38">
         <f>Data!E32</f>
-        <v>14839.547707666994</v>
-      </c>
-      <c r="C22" s="40">
+        <v>14835.097178513441</v>
+      </c>
+      <c r="C22" s="38">
         <f>Data!F32</f>
-        <v>9959.8298209161967</v>
+        <v>9972.0985455624814</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5">
         <f>Data!B33</f>
-        <v>43312</v>
-      </c>
-      <c r="B23" s="40">
+        <v>43281</v>
+      </c>
+      <c r="B23" s="38">
         <f>Data!E33</f>
-        <v>14876.64657693616</v>
-      </c>
-      <c r="C23" s="40">
+        <v>14839.547707666994</v>
+      </c>
+      <c r="C23" s="38">
         <f>Data!F33</f>
-        <v>9962.2044127832196</v>
+        <v>9959.8298209161967</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5">
         <f>Data!B34</f>
-        <v>43343</v>
-      </c>
-      <c r="B24" s="40">
+        <v>43312</v>
+      </c>
+      <c r="B24" s="38">
         <f>Data!E34</f>
-        <v>14997.147414209343</v>
-      </c>
-      <c r="C24" s="40">
+        <v>14876.64657693616</v>
+      </c>
+      <c r="C24" s="38">
         <f>Data!F34</f>
-        <v>10026.318393192838</v>
+        <v>9962.2044127832196</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5">
         <f>Data!B35</f>
-        <v>43373</v>
-      </c>
-      <c r="B25" s="40">
+        <v>43343</v>
+      </c>
+      <c r="B25" s="38">
         <f>Data!E35</f>
-        <v>15097.628301884544</v>
-      </c>
-      <c r="C25" s="40">
+        <v>14997.147414209343</v>
+      </c>
+      <c r="C25" s="38">
         <f>Data!F35</f>
-        <v>9961.7591768081547</v>
+        <v>10026.318393192838</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5">
         <f>Data!B36</f>
-        <v>43404</v>
-      </c>
-      <c r="B26" s="40">
+        <v>43373</v>
+      </c>
+      <c r="B26" s="38">
         <f>Data!E36</f>
-        <v>15167.077392073212</v>
-      </c>
-      <c r="C26" s="40">
+        <v>15097.628301884544</v>
+      </c>
+      <c r="C26" s="38">
         <f>Data!F36</f>
-        <v>9883.0513505491253</v>
+        <v>9961.7591768081547</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5">
         <f>Data!B37</f>
-        <v>43434</v>
-      </c>
-      <c r="B27" s="40">
+        <v>43404</v>
+      </c>
+      <c r="B27" s="38">
         <f>Data!E37</f>
-        <v>15201.961670074979</v>
-      </c>
-      <c r="C27" s="40">
+        <v>15167.077392073212</v>
+      </c>
+      <c r="C27" s="38">
         <f>Data!F37</f>
-        <v>9942.0203819135259</v>
+        <v>9883.0513505491253</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5">
         <f>Data!B38</f>
-        <v>43465</v>
-      </c>
-      <c r="B28" s="40">
+        <v>43434</v>
+      </c>
+      <c r="B28" s="38">
         <f>Data!E38</f>
-        <v>15375.264033113835</v>
-      </c>
-      <c r="C28" s="40">
+        <v>15201.961670074979</v>
+      </c>
+      <c r="C28" s="38">
         <f>Data!F38</f>
-        <v>10124.6660730187</v>
+        <v>9942.0203819135259</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5">
         <f>Data!B39</f>
-        <v>43496</v>
-      </c>
-      <c r="B29" s="40">
+        <v>43465</v>
+      </c>
+      <c r="B29" s="38">
         <f>Data!E39</f>
-        <v>15413.702193196619</v>
-      </c>
-      <c r="C29" s="40">
+        <v>15375.264033113835</v>
+      </c>
+      <c r="C29" s="38">
         <f>Data!F39</f>
-        <v>10232.215296329277</v>
+        <v>10124.6660730187</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5">
         <f>Data!B40</f>
-        <v>43524</v>
-      </c>
-      <c r="B30" s="40">
+        <v>43496</v>
+      </c>
+      <c r="B30" s="38">
         <f>Data!E40</f>
-        <v>15529.304959645595</v>
-      </c>
-      <c r="C30" s="40">
+        <v>15413.702193196619</v>
+      </c>
+      <c r="C30" s="38">
         <f>Data!F40</f>
-        <v>10226.278816661719</v>
+        <v>10232.215296329277</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5">
         <f>Data!B41</f>
-        <v>43555</v>
-      </c>
-      <c r="B31" s="40">
+        <v>43524</v>
+      </c>
+      <c r="B31" s="38">
         <f>Data!E41</f>
-        <v>15760.691603544314</v>
-      </c>
-      <c r="C31" s="40">
+        <v>15529.304959645595</v>
+      </c>
+      <c r="C31" s="38">
         <f>Data!F41</f>
-        <v>10422.627881666172</v>
+        <v>10226.278816661719</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5">
         <f>Data!B42</f>
-        <v>43585</v>
-      </c>
-      <c r="B32" s="40">
+        <v>43555</v>
+      </c>
+      <c r="B32" s="38">
         <f>Data!E42</f>
-        <v>15877.320721410542</v>
-      </c>
-      <c r="C32" s="40">
+        <v>15760.691603544314</v>
+      </c>
+      <c r="C32" s="38">
         <f>Data!F42</f>
-        <v>10425.299297516574</v>
+        <v>10422.627881666172</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5">
         <f>Data!B43</f>
-        <v>43616</v>
-      </c>
-      <c r="B33" s="40">
+        <v>43585</v>
+      </c>
+      <c r="B33" s="38">
         <f>Data!E43</f>
-        <v>16088.489087005304</v>
-      </c>
-      <c r="C33" s="40">
+        <v>15877.320721410542</v>
+      </c>
+      <c r="C33" s="38">
         <f>Data!F43</f>
-        <v>10610.369051152669</v>
+        <v>10425.299297516574</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5">
         <f>Data!B44</f>
-        <v>43646</v>
-      </c>
-      <c r="B34" s="40">
+        <v>43616</v>
+      </c>
+      <c r="B34" s="38">
         <f>Data!E44</f>
-        <v>16341.078365671288</v>
-      </c>
-      <c r="C34" s="40">
+        <v>16088.489087005304</v>
+      </c>
+      <c r="C34" s="38">
         <f>Data!F44</f>
-        <v>10743.593549025431</v>
+        <v>10610.369051152669</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5">
         <f>Data!B45</f>
-        <v>43677</v>
-      </c>
-      <c r="B35" s="40">
+        <v>43646</v>
+      </c>
+      <c r="B35" s="38">
         <f>Data!E45</f>
-        <v>16424.417865336214</v>
-      </c>
-      <c r="C35" s="40">
+        <v>16341.078365671288</v>
+      </c>
+      <c r="C35" s="38">
         <f>Data!F45</f>
-        <v>10767.240526367865</v>
+        <v>10743.593549025431</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5">
         <f>Data!B46</f>
-        <v>43708</v>
-      </c>
-      <c r="B36" s="40">
+        <v>43677</v>
+      </c>
+      <c r="B36" s="38">
         <f>Data!E46</f>
-        <v>16652.717273664388</v>
-      </c>
-      <c r="C36" s="40">
+        <v>16424.417865336214</v>
+      </c>
+      <c r="C36" s="38">
         <f>Data!F46</f>
-        <v>11046.255070743051</v>
+        <v>10767.240526367865</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5">
         <f>Data!B47</f>
-        <v>43738</v>
-      </c>
-      <c r="B37" s="40">
+        <v>43708</v>
+      </c>
+      <c r="B37" s="38">
         <f>Data!E47</f>
-        <v>16729.319773123243</v>
-      </c>
-      <c r="C37" s="40">
+        <v>16652.717273664388</v>
+      </c>
+      <c r="C37" s="38">
         <f>Data!F47</f>
-        <v>10987.43445137034</v>
+        <v>11046.255070743051</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5">
         <f>Data!B48</f>
-        <v>43769</v>
-      </c>
-      <c r="B38" s="40">
+        <v>43738</v>
+      </c>
+      <c r="B38" s="38">
         <f>Data!E48</f>
-        <v>16903.304698763724</v>
-      </c>
-      <c r="C38" s="40">
+        <v>16729.319773123243</v>
+      </c>
+      <c r="C38" s="38">
         <f>Data!F48</f>
-        <v>11020.530325516971</v>
+        <v>10987.43445137034</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5">
         <f>Data!B49</f>
-        <v>43799</v>
-      </c>
-      <c r="B39" s="40">
+        <v>43769</v>
+      </c>
+      <c r="B39" s="38">
         <f>Data!E49</f>
-        <v>17018.247170715316</v>
-      </c>
-      <c r="C39" s="40">
+        <v>16903.304698763724</v>
+      </c>
+      <c r="C39" s="38">
         <f>Data!F49</f>
-        <v>11014.890669832792</v>
+        <v>11020.530325516971</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5">
         <f>Data!B50</f>
-        <v>43830</v>
-      </c>
-      <c r="B40" s="40">
+        <v>43799</v>
+      </c>
+      <c r="B40" s="38">
         <f>Data!E50</f>
-        <v>17310.961022051622</v>
-      </c>
-      <c r="C40" s="40">
+        <v>17018.247170715316</v>
+      </c>
+      <c r="C40" s="38">
         <f>Data!F50</f>
-        <v>11007.222716928862</v>
+        <v>11014.890669832792</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5">
         <f>Data!B51</f>
-        <v>43861</v>
-      </c>
-      <c r="B41" s="40">
+        <v>43830</v>
+      </c>
+      <c r="B41" s="38">
         <f>Data!E51</f>
-        <v>17475.415151761114</v>
-      </c>
-      <c r="C41" s="40">
+        <v>17310.961022051622</v>
+      </c>
+      <c r="C41" s="38">
         <f>Data!F51</f>
-        <v>11219.056099732861</v>
+        <v>11007.222716928862</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5">
         <f>Data!B52</f>
-        <v>43890</v>
-      </c>
-      <c r="B42" s="40">
+        <v>43861</v>
+      </c>
+      <c r="B42" s="38">
         <f>Data!E52</f>
-        <v>17931.523487222079</v>
-      </c>
-      <c r="C42" s="40">
+        <v>17475.415151761114</v>
+      </c>
+      <c r="C42" s="38">
         <f>Data!F52</f>
-        <v>11420.995349757593</v>
+        <v>11219.056099732861</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5">
         <f>Data!B53</f>
-        <v>43921</v>
-      </c>
-      <c r="B43" s="40">
+        <v>43890</v>
+      </c>
+      <c r="B43" s="38">
         <f>Data!E53</f>
-        <v>16159.888966684537</v>
-      </c>
-      <c r="C43" s="40">
+        <v>17931.523487222079</v>
+      </c>
+      <c r="C43" s="38">
         <f>Data!F53</f>
-        <v>11353.76471752251</v>
+        <v>11420.995349757593</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5">
         <f>Data!B54</f>
-        <v>43951</v>
-      </c>
-      <c r="B44" s="40">
+        <v>43921</v>
+      </c>
+      <c r="B44" s="38">
         <f>Data!E54</f>
-        <v>16782.04469190189</v>
-      </c>
-      <c r="C44" s="40">
+        <v>16159.888966684537</v>
+      </c>
+      <c r="C44" s="38">
         <f>Data!F54</f>
-        <v>11555.605026219451</v>
+        <v>11353.76471752251</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5">
         <f>Data!B55</f>
-        <v>43982</v>
-      </c>
-      <c r="B45" s="40">
+        <v>43951</v>
+      </c>
+      <c r="B45" s="38">
         <f>Data!E55</f>
-        <v>17144.536857246971</v>
-      </c>
-      <c r="C45" s="40">
+        <v>16782.04469190189</v>
+      </c>
+      <c r="C45" s="38">
         <f>Data!F55</f>
-        <v>11609.379637874739</v>
+        <v>11555.605026219451</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5">
         <f>Data!B56</f>
-        <v>44012</v>
-      </c>
-      <c r="B46" s="40">
+        <v>43982</v>
+      </c>
+      <c r="B46" s="38">
         <f>Data!E56</f>
-        <v>17444.566252248795</v>
-      </c>
-      <c r="C46" s="40">
+        <v>17144.536857246971</v>
+      </c>
+      <c r="C46" s="38">
         <f>Data!F56</f>
-        <v>11682.546749777384</v>
+        <v>11609.379637874739</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5">
         <f>Data!B57</f>
-        <v>44043</v>
-      </c>
-      <c r="B47" s="40">
+        <v>44012</v>
+      </c>
+      <c r="B47" s="38">
         <f>Data!E57</f>
-        <v>17758.568444789275</v>
-      </c>
-      <c r="C47" s="40">
+        <v>17444.566252248795</v>
+      </c>
+      <c r="C47" s="38">
         <f>Data!F57</f>
-        <v>11857.029781339668</v>
+        <v>11682.546749777384</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5">
         <f>Data!B58</f>
-        <v>44074</v>
-      </c>
-      <c r="B48" s="40">
+        <v>44043</v>
+      </c>
+      <c r="B48" s="38">
         <f>Data!E58</f>
-        <v>17945.033413459561</v>
-      </c>
-      <c r="C48" s="40">
+        <v>17758.568444789275</v>
+      </c>
+      <c r="C48" s="38">
         <f>Data!F58</f>
-        <v>11761.304046700308</v>
+        <v>11857.029781339668</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5">
         <f>Data!B59</f>
-        <v>44104</v>
-      </c>
-      <c r="B49" s="40">
+        <v>44074</v>
+      </c>
+      <c r="B49" s="38">
         <f>Data!E59</f>
-        <v>18083.210170743201</v>
-      </c>
-      <c r="C49" s="40">
+        <v>17945.033413459561</v>
+      </c>
+      <c r="C49" s="38">
         <f>Data!F59</f>
-        <v>11754.872860393789</v>
+        <v>11761.304046700308</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5">
         <f>Data!B60</f>
-        <v>44135</v>
-      </c>
-      <c r="B50" s="40">
+        <v>44104</v>
+      </c>
+      <c r="B50" s="38">
         <f>Data!E60</f>
-        <v>18276.700519570153</v>
-      </c>
-      <c r="C50" s="40">
+        <v>18083.210170743201</v>
+      </c>
+      <c r="C50" s="38">
         <f>Data!F60</f>
-        <v>11702.384485999804</v>
+        <v>11754.872860393789</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5">
         <f>Data!B61</f>
-        <v>44165</v>
-      </c>
-      <c r="B51" s="40">
+        <v>44135</v>
+      </c>
+      <c r="B51" s="38">
         <f>Data!E61</f>
-        <v>18461.295194817812</v>
-      </c>
-      <c r="C51" s="40">
+        <v>18276.700519570153</v>
+      </c>
+      <c r="C51" s="38">
         <f>Data!F61</f>
-        <v>11817.205896903139</v>
+        <v>11702.384485999804</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5">
         <f>Data!B62</f>
+        <v>44165</v>
+      </c>
+      <c r="B52" s="38">
+        <f>Data!E62</f>
+        <v>18461.295194817812</v>
+      </c>
+      <c r="C52" s="38">
+        <f>Data!F62</f>
+        <v>11817.205896903139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5">
+        <f>Data!B63</f>
         <v>44196</v>
       </c>
-      <c r="B52" s="40">
-        <f>Data!E62</f>
+      <c r="B53" s="38">
+        <f>Data!E63</f>
         <v>18636.677499168582</v>
       </c>
-      <c r="C52" s="40">
-        <f>Data!F62</f>
+      <c r="C53" s="38">
+        <f>Data!F63</f>
         <v>11833.481745325023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5">
+        <f>Data!B64</f>
+        <v>44227</v>
+      </c>
+      <c r="B54" s="38">
+        <f>Data!E64</f>
+        <v>18754.088567413342</v>
+      </c>
+      <c r="C54" s="38">
+        <f>Data!F64</f>
+        <v>11748.639556742852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5">
+        <f>Data!B65</f>
+        <v>44255</v>
+      </c>
+      <c r="B55" s="38">
+        <f>Data!E65</f>
+        <v>18956.632723941406</v>
+      </c>
+      <c r="C55" s="38">
+        <f>Data!F65</f>
+        <v>11579.004650242407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5">
+        <f>Data!B66</f>
+        <v>44286</v>
+      </c>
+      <c r="B56" s="38">
+        <f>Data!E66</f>
+        <v>19053.31155083351</v>
+      </c>
+      <c r="C56" s="38">
+        <f>Data!F66</f>
+        <v>11434.401899673494</v>
       </c>
     </row>
   </sheetData>
@@ -8675,15 +11038,15 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="40"/>
-    <col min="6" max="6" width="15.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="38"/>
+    <col min="6" max="6" width="15.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8691,27 +11054,27 @@
         <f>'INSTITUTIONAL FACT SHEET'!A4</f>
         <v>Share Class/Benchmark</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!B4</f>
         <v>QTD</v>
       </c>
-      <c r="C1" s="40" t="str">
+      <c r="C1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!C4</f>
         <v>YTD</v>
       </c>
-      <c r="D1" s="40" t="str">
+      <c r="D1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!D4</f>
         <v>1 Year</v>
       </c>
-      <c r="E1" s="40" t="str">
+      <c r="E1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!E4</f>
         <v>2 Years</v>
       </c>
-      <c r="F1" s="40" t="str">
+      <c r="F1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!F4</f>
         <v>3 Years</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="38" t="s">
         <v>50</v>
       </c>
       <c r="H1" t="s">
@@ -8723,29 +11086,29 @@
         <f>'INSTITUTIONAL FACT SHEET'!A5</f>
         <v>Wickapogue Structured Credit Fund</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!B5</f>
-        <v>3.0606696665000044</v>
-      </c>
-      <c r="C2" s="40">
+        <v>2.2355597004000138</v>
+      </c>
+      <c r="C2" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!C5</f>
-        <v>7.6582488714993513</v>
-      </c>
-      <c r="D2" s="40">
+        <v>2.2355597004000138</v>
+      </c>
+      <c r="D2" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!D5</f>
-        <v>7.6582488714993513</v>
-      </c>
-      <c r="E2" s="40">
+        <v>17.904965746448486</v>
+      </c>
+      <c r="E2" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!E5</f>
-        <v>10.096358266309302</v>
-      </c>
-      <c r="F2" s="40">
+        <v>9.9505987997082546</v>
+      </c>
+      <c r="F2" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!F5</f>
-        <v>9.3758685395332719</v>
-      </c>
-      <c r="G2" s="40">
+        <v>9.1914960029621184</v>
+      </c>
+      <c r="G2" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!G5</f>
-        <v>16.115029699064777</v>
+        <v>15.714968144363016</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -8756,29 +11119,29 @@
         <f>'INSTITUTIONAL FACT SHEET'!A6</f>
         <v>Barclays U.S. Agg. Bond TR Index</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!B6</f>
-        <v>0.66873445476467452</v>
-      </c>
-      <c r="C3" s="40">
+        <v>-3.3724634409411314</v>
+      </c>
+      <c r="C3" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!C6</f>
-        <v>7.5065168539325988</v>
-      </c>
-      <c r="D3" s="40">
+        <v>-3.3724634409411314</v>
+      </c>
+      <c r="D3" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!D6</f>
-        <v>7.5065168539325988</v>
-      </c>
-      <c r="E3" s="40">
+        <v>0.71022417812247607</v>
+      </c>
+      <c r="E3" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!E6</f>
-        <v>8.1100127004256386</v>
-      </c>
-      <c r="F3" s="40">
+        <v>4.741336258219353</v>
+      </c>
+      <c r="F3" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!F6</f>
-        <v>5.3400569261567332</v>
-      </c>
-      <c r="G3" s="40">
+        <v>4.6543452836169896</v>
+      </c>
+      <c r="G3" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!G6</f>
-        <v>4.1230811068915241</v>
+        <v>3.0814228169778968</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -8795,407 +11158,472 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="62"/>
-    <col min="2" max="13" width="9.140625" style="40"/>
-    <col min="14" max="14" width="12.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="40"/>
-    <col min="16" max="16" width="9.140625" style="62"/>
+    <col min="1" max="1" width="9.109375" style="59"/>
+    <col min="2" max="13" width="9.109375" style="38"/>
+    <col min="14" max="14" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="38"/>
+    <col min="16" max="16" width="9.109375" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!I20</f>
         <v>Jan</v>
       </c>
-      <c r="C1" s="40" t="str">
+      <c r="C1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!J20</f>
         <v>Feb</v>
       </c>
-      <c r="D1" s="40" t="str">
+      <c r="D1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!K20</f>
         <v>Mar</v>
       </c>
-      <c r="E1" s="40" t="str">
+      <c r="E1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!L20</f>
         <v>Apr</v>
       </c>
-      <c r="F1" s="40" t="str">
+      <c r="F1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!M20</f>
         <v>May</v>
       </c>
-      <c r="G1" s="40" t="str">
+      <c r="G1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!N20</f>
         <v>Jun</v>
       </c>
-      <c r="H1" s="40" t="str">
+      <c r="H1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!O20</f>
         <v>Jul</v>
       </c>
-      <c r="I1" s="40" t="str">
+      <c r="I1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!P20</f>
         <v>Aug</v>
       </c>
-      <c r="J1" s="40" t="str">
+      <c r="J1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!Q20</f>
         <v>Sep</v>
       </c>
-      <c r="K1" s="40" t="str">
+      <c r="K1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!R20</f>
         <v>Oct</v>
       </c>
-      <c r="L1" s="40" t="str">
+      <c r="L1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!S20</f>
         <v>Nov</v>
       </c>
-      <c r="M1" s="40" t="str">
+      <c r="M1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!T20</f>
         <v>Dec</v>
       </c>
-      <c r="N1" s="40" t="str">
+      <c r="N1" s="38" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!U20</f>
         <v>YTD</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="59" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="62">
+      <c r="A2" s="59">
         <f>'INSTITUTIONAL FACT SHEET'!H21</f>
+        <v>2021</v>
+      </c>
+      <c r="B2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!I21</f>
+        <v>0.63</v>
+      </c>
+      <c r="C2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!J21</f>
+        <v>1.08</v>
+      </c>
+      <c r="D2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!K21</f>
+        <v>0.51</v>
+      </c>
+      <c r="E2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!L21</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!M21</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!N21</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!O21</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!P21</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!R21</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!S21</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!T21</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!U21</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!V21</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="59">
+        <f>'INSTITUTIONAL FACT SHEET'!H22</f>
         <v>2020</v>
       </c>
-      <c r="B2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!I21</f>
+      <c r="B3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!I22</f>
         <v>0.95</v>
       </c>
-      <c r="C2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!J21</f>
+      <c r="C3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!J22</f>
         <v>2.6100000000000003</v>
       </c>
-      <c r="D2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!K21</f>
+      <c r="D3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!K22</f>
         <v>-9.879999999999999</v>
       </c>
-      <c r="E2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!L21</f>
+      <c r="E3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!L22</f>
         <v>3.85</v>
       </c>
-      <c r="F2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!M21</f>
+      <c r="F3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!M22</f>
         <v>2.16</v>
       </c>
-      <c r="G2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!N21</f>
+      <c r="G3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!N22</f>
         <v>1.7500000000000002</v>
       </c>
-      <c r="H2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!O21</f>
+      <c r="H3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!O22</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="I2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!P21</f>
+      <c r="I3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!P22</f>
         <v>1.05</v>
       </c>
-      <c r="J2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!Q21</f>
+      <c r="J3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!Q22</f>
         <v>0.77</v>
       </c>
-      <c r="K2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!R21</f>
+      <c r="K3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!R22</f>
         <v>1.0699999999999998</v>
       </c>
-      <c r="L2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!S21</f>
+      <c r="L3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!S22</f>
         <v>1.01</v>
       </c>
-      <c r="M2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!T21</f>
+      <c r="M3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!T22</f>
         <v>0.95</v>
       </c>
-      <c r="N2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!U21</f>
-        <v>7.6582488714993513</v>
-      </c>
-      <c r="O2" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!V21</f>
-        <v>7.5065168539325988</v>
-      </c>
-      <c r="P2" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="62">
-        <f>'INSTITUTIONAL FACT SHEET'!H22</f>
+      <c r="N3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!U22</f>
+        <v>9.5099707520891474</v>
+      </c>
+      <c r="O3" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!V22</f>
+        <v>7.4316768094136565</v>
+      </c>
+      <c r="P3" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="59">
+        <f>'INSTITUTIONAL FACT SHEET'!H23</f>
         <v>2019</v>
       </c>
-      <c r="B3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!I22</f>
+      <c r="B4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!I23</f>
         <v>0.25</v>
       </c>
-      <c r="C3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!J22</f>
+      <c r="C4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!J23</f>
         <v>0.75</v>
       </c>
-      <c r="D3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!K22</f>
+      <c r="D4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!K23</f>
         <v>1.49</v>
       </c>
-      <c r="E3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!L22</f>
+      <c r="E4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!L23</f>
         <v>0.74</v>
       </c>
-      <c r="F3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!M22</f>
+      <c r="F4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!M23</f>
         <v>1.3299999999999998</v>
       </c>
-      <c r="G3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!N22</f>
+      <c r="G4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!N23</f>
         <v>1.5699999999999998</v>
       </c>
-      <c r="H3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!O22</f>
+      <c r="H4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!O23</f>
         <v>0.51</v>
       </c>
-      <c r="I3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!P22</f>
+      <c r="I4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!P23</f>
         <v>1.39</v>
       </c>
-      <c r="J3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!Q22</f>
+      <c r="J4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!Q23</f>
         <v>0.45999999999999996</v>
       </c>
-      <c r="K3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!R22</f>
+      <c r="K4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!R23</f>
         <v>1.04</v>
       </c>
-      <c r="L3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!S22</f>
+      <c r="L4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!S23</f>
         <v>0.67999999999999994</v>
       </c>
-      <c r="M3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!T22</f>
+      <c r="M4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!T23</f>
         <v>1.72</v>
       </c>
-      <c r="N3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!U22</f>
+      <c r="N4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!U23</f>
         <v>12.589682913859956</v>
       </c>
-      <c r="O3" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!V22</f>
+      <c r="O4" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!V23</f>
         <v>8.7168963158409163</v>
       </c>
-      <c r="P3" s="62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="62">
-        <f>'INSTITUTIONAL FACT SHEET'!H23</f>
+      <c r="P4" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="59">
+        <f>'INSTITUTIONAL FACT SHEET'!H24</f>
         <v>2018</v>
       </c>
-      <c r="B4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!I23</f>
+      <c r="B5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!I24</f>
         <v>1.1900000000000002</v>
       </c>
-      <c r="C4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!J23</f>
+      <c r="C5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!J24</f>
         <v>0.74</v>
       </c>
-      <c r="D4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!K23</f>
+      <c r="D5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!K24</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!L23</f>
+      <c r="E5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!L24</f>
         <v>0.65</v>
       </c>
-      <c r="F4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!M23</f>
+      <c r="F5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!M24</f>
         <v>0.71000000000000008</v>
       </c>
-      <c r="G4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!N23</f>
+      <c r="G5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!N24</f>
         <v>0.03</v>
       </c>
-      <c r="H4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!O23</f>
+      <c r="H5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!O24</f>
         <v>0.25</v>
       </c>
-      <c r="I4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!P23</f>
+      <c r="I5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!P24</f>
         <v>0.80999999999999994</v>
       </c>
-      <c r="J4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!Q23</f>
+      <c r="J5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!Q24</f>
         <v>0.67</v>
       </c>
-      <c r="K4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!R23</f>
+      <c r="K5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!R24</f>
         <v>0.45999999999999996</v>
       </c>
-      <c r="L4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!S23</f>
+      <c r="L5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!S24</f>
         <v>0.22999999999999998</v>
       </c>
-      <c r="M4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!T23</f>
+      <c r="M5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!T24</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="N4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!U23</f>
+      <c r="N5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!U24</f>
         <v>7.9490032605758154</v>
       </c>
-      <c r="O4" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!V23</f>
+      <c r="O5" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!V24</f>
         <v>1.1239414182195873E-2</v>
       </c>
-      <c r="P4" s="62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="62">
-        <f>'INSTITUTIONAL FACT SHEET'!H24</f>
+      <c r="P5" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="59">
+        <f>'INSTITUTIONAL FACT SHEET'!H25</f>
         <v>2017</v>
       </c>
-      <c r="B5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!I24</f>
+      <c r="B6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!I25</f>
         <v>3.39</v>
       </c>
-      <c r="C5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!J24</f>
+      <c r="C6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!J25</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="D5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!K24</f>
+      <c r="D6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!K25</f>
         <v>3.09</v>
       </c>
-      <c r="E5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!L24</f>
+      <c r="E6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!L25</f>
         <v>2.04</v>
       </c>
-      <c r="F5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!M24</f>
+      <c r="F6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!M25</f>
         <v>3.3300000000000005</v>
       </c>
-      <c r="G5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!N24</f>
+      <c r="G6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!N25</f>
         <v>2.16</v>
       </c>
-      <c r="H5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!O24</f>
+      <c r="H6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!O25</f>
         <v>0.79</v>
       </c>
-      <c r="I5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!P24</f>
+      <c r="I6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!P25</f>
         <v>1.52</v>
       </c>
-      <c r="J5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!Q24</f>
+      <c r="J6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!Q25</f>
         <v>2.63</v>
       </c>
-      <c r="K5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!R24</f>
+      <c r="K6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!R25</f>
         <v>1.6199999999999999</v>
       </c>
-      <c r="L5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!S24</f>
+      <c r="L6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!S25</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="M5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!T24</f>
+      <c r="M6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!T25</f>
         <v>1.43</v>
       </c>
-      <c r="N5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!U24</f>
+      <c r="N6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!U25</f>
         <v>28.764679088503708</v>
       </c>
-      <c r="O5" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!V24</f>
+      <c r="O6" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!V25</f>
         <v>3.5418469213760684</v>
       </c>
-      <c r="P5" s="62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="62">
-        <f>'INSTITUTIONAL FACT SHEET'!H25</f>
+      <c r="P6" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="59">
+        <f>'INSTITUTIONAL FACT SHEET'!H26</f>
         <v>2016</v>
       </c>
-      <c r="B6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!I25</f>
+      <c r="B7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!I26</f>
         <v>0</v>
       </c>
-      <c r="C6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!J25</f>
+      <c r="C7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!J26</f>
         <v>0</v>
       </c>
-      <c r="D6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!K25</f>
+      <c r="D7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!K26</f>
         <v>0</v>
       </c>
-      <c r="E6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!L25</f>
+      <c r="E7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!L26</f>
         <v>0</v>
       </c>
-      <c r="F6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!M25</f>
+      <c r="F7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!M26</f>
         <v>0</v>
       </c>
-      <c r="G6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!N25</f>
+      <c r="G7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!N26</f>
         <v>0</v>
       </c>
-      <c r="H6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!O25</f>
+      <c r="H7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!O26</f>
         <v>0</v>
       </c>
-      <c r="I6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!P25</f>
+      <c r="I7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!P26</f>
         <v>0</v>
       </c>
-      <c r="J6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!Q25</f>
+      <c r="J7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!Q26</f>
         <v>0</v>
       </c>
-      <c r="K6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!R25</f>
+      <c r="K7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!R26</f>
         <v>0</v>
       </c>
-      <c r="L6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!S25</f>
+      <c r="L7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!S26</f>
         <v>7.0900000000000007</v>
       </c>
-      <c r="M6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!T25</f>
+      <c r="M7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!T26</f>
         <v>3.29</v>
       </c>
-      <c r="N6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!U25</f>
+      <c r="N7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!U26</f>
         <v>10.613260999999973</v>
       </c>
-      <c r="O6" s="40">
-        <f>'INSTITUTIONAL FACT SHEET'!V25</f>
+      <c r="O7" s="38">
+        <f>'INSTITUTIONAL FACT SHEET'!V26</f>
         <v>-2.2276639952508392</v>
       </c>
-      <c r="P6" s="62">
-        <v>5</v>
+      <c r="P7" s="59">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9211,14 +11639,12 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9243,11 +11669,11 @@
       </c>
       <c r="B2" s="4">
         <f>'INSTITUTIONAL FACT SHEET'!B30</f>
-        <v>0.16115029699064776</v>
+        <v>0.15714968144363017</v>
       </c>
       <c r="C2" s="4">
         <f>'INSTITUTIONAL FACT SHEET'!C30</f>
-        <v>4.1230811068915241E-2</v>
+        <v>3.0814228169778968E-2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9260,11 +11686,11 @@
       </c>
       <c r="B3" s="4">
         <f>'INSTITUTIONAL FACT SHEET'!B31</f>
-        <v>6.9892965749240379E-2</v>
+        <v>6.8014323386890257E-2</v>
       </c>
       <c r="C3" s="4">
         <f>'INSTITUTIONAL FACT SHEET'!C31</f>
-        <v>3.2690449247023003E-2</v>
+        <v>3.4003684356440342E-2</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -9275,13 +11701,13 @@
         <f>'INSTITUTIONAL FACT SHEET'!A32</f>
         <v>Sharpe Ratio</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!B32</f>
-        <v>2.2953282246774789</v>
-      </c>
-      <c r="C4" s="40">
+        <v>2.3079356468888523</v>
+      </c>
+      <c r="C4" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!C32</f>
-        <v>1.2391328966702448</v>
+        <v>0.90099731101568814</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9292,13 +11718,13 @@
         <f>'INSTITUTIONAL FACT SHEET'!A33</f>
         <v>Number of Down Months</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="55">
         <f>'INSTITUTIONAL FACT SHEET'!B33</f>
         <v>1</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="55">
         <f>'INSTITUTIONAL FACT SHEET'!C33</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9311,7 +11737,7 @@
       </c>
       <c r="B6" s="4">
         <f>'INSTITUTIONAL FACT SHEET'!B34</f>
-        <v>0.15652290823751025</v>
+        <v>0.15313400092229904</v>
       </c>
       <c r="C6" s="4">
         <f>'INSTITUTIONAL FACT SHEET'!C34</f>
@@ -9326,11 +11752,11 @@
         <f>'INSTITUTIONAL FACT SHEET'!A35</f>
         <v>Beta (vs. Barclays Agg)</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!B35</f>
-        <v>9.6386070985051503E-2</v>
-      </c>
-      <c r="C7" s="40">
+        <v>0.12529464154063602</v>
+      </c>
+      <c r="C7" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!C35</f>
         <v>1</v>
       </c>
@@ -9343,11 +11769,11 @@
         <f>'INSTITUTIONAL FACT SHEET'!A36</f>
         <v>R-squared (vs. Barclays Agg)</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="3">
         <f>'INSTITUTIONAL FACT SHEET'!B36</f>
-        <v>2.1161733596233609E-3</v>
-      </c>
-      <c r="C8" s="40">
+        <v>4.0762539824993043E-3</v>
+      </c>
+      <c r="C8" s="38">
         <f>'INSTITUTIONAL FACT SHEET'!C36</f>
         <v>1</v>
       </c>
